--- a/minio-report-tracker/xlxs/cellbox21.xlsx
+++ b/minio-report-tracker/xlxs/cellbox21.xlsx
@@ -722,7 +722,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -774,7 +774,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>45846</v>
+        <v>45847</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -785,13 +785,13 @@
         <v>512</v>
       </c>
       <c r="D2" t="n">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G2" t="n">
         <v>4</v>
@@ -802,7 +802,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>45845</v>
+        <v>45846</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -813,13 +813,13 @@
         <v>512</v>
       </c>
       <c r="D3" t="n">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G3" t="n">
         <v>4</v>
@@ -830,27 +830,27 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>45844</v>
+        <v>45845</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>dsl</t>
+          <t>auth</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>512</v>
       </c>
       <c r="D4" t="n">
-        <v>2</v>
+        <v>493</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -858,7 +858,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>45846</v>
+        <v>45847</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -869,13 +869,13 @@
         <v>410</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>322</v>
       </c>
       <c r="E5" t="n">
-        <v>326</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G5" t="n">
         <v>84</v>
@@ -886,7 +886,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>45845</v>
+        <v>45846</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -897,13 +897,13 @@
         <v>410</v>
       </c>
       <c r="D6" t="n">
-        <v>322</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>326</v>
       </c>
       <c r="F6" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>84</v>
@@ -914,27 +914,27 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>45846</v>
+        <v>45845</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>masterdata-ara</t>
+          <t>idrepo</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>945</v>
+        <v>410</v>
       </c>
       <c r="D7" t="n">
-        <v>920</v>
+        <v>322</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G7" t="n">
-        <v>15</v>
+        <v>84</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -942,7 +942,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>45845</v>
+        <v>45847</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -974,14 +974,14 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>masterdata-eng</t>
+          <t>masterdata-ara</t>
         </is>
       </c>
       <c r="C9" t="n">
         <v>945</v>
       </c>
       <c r="D9" t="n">
-        <v>935</v>
+        <v>920</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -990,7 +990,7 @@
         <v>10</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1002,14 +1002,14 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>masterdata-eng</t>
+          <t>masterdata-ara</t>
         </is>
       </c>
       <c r="C10" t="n">
         <v>945</v>
       </c>
       <c r="D10" t="n">
-        <v>935</v>
+        <v>920</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1018,7 +1018,7 @@
         <v>10</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1026,18 +1026,18 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>45846</v>
+        <v>45847</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>masterdata-fra</t>
+          <t>masterdata-eng</t>
         </is>
       </c>
       <c r="C11" t="n">
         <v>945</v>
       </c>
       <c r="D11" t="n">
-        <v>920</v>
+        <v>935</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1046,7 +1046,7 @@
         <v>10</v>
       </c>
       <c r="G11" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1054,18 +1054,18 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>45845</v>
+        <v>45846</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>masterdata-fra</t>
+          <t>masterdata-eng</t>
         </is>
       </c>
       <c r="C12" t="n">
         <v>945</v>
       </c>
       <c r="D12" t="n">
-        <v>920</v>
+        <v>935</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -1074,7 +1074,7 @@
         <v>10</v>
       </c>
       <c r="G12" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1082,18 +1082,18 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>45846</v>
+        <v>45845</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>masterdata-hin</t>
+          <t>masterdata-eng</t>
         </is>
       </c>
       <c r="C13" t="n">
         <v>945</v>
       </c>
       <c r="D13" t="n">
-        <v>920</v>
+        <v>935</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1102,7 +1102,7 @@
         <v>10</v>
       </c>
       <c r="G13" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1110,11 +1110,11 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>45845</v>
+        <v>45847</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>masterdata-hin</t>
+          <t>masterdata-fra</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>masterdata-kan</t>
+          <t>masterdata-fra</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -1170,7 +1170,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>masterdata-kan</t>
+          <t>masterdata-fra</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -1194,11 +1194,11 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>45846</v>
+        <v>45847</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>masterdata-tam</t>
+          <t>masterdata-hin</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -1222,11 +1222,11 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>45845</v>
+        <v>45846</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>masterdata-tam</t>
+          <t>masterdata-hin</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -1250,58 +1250,58 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>45846</v>
+        <v>45845</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pms</t>
+          <t>masterdata-hin</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>509</v>
+        <v>945</v>
       </c>
       <c r="D19" t="n">
-        <v>332</v>
+        <v>920</v>
       </c>
       <c r="E19" t="n">
-        <v>134</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H19" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>45845</v>
+        <v>45847</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pms</t>
+          <t>masterdata-kan</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>509</v>
+        <v>945</v>
       </c>
       <c r="D20" t="n">
-        <v>497</v>
+        <v>920</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H20" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1310,23 +1310,23 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>prereg</t>
+          <t>masterdata-kan</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>288</v>
+        <v>945</v>
       </c>
       <c r="D21" t="n">
-        <v>280</v>
+        <v>920</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G21" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1338,23 +1338,23 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>prereg</t>
+          <t>masterdata-kan</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>288</v>
+        <v>945</v>
       </c>
       <c r="D22" t="n">
-        <v>280</v>
+        <v>920</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G22" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1362,27 +1362,27 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>45846</v>
+        <v>45847</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>resident</t>
+          <t>masterdata-tam</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>1126</v>
+        <v>945</v>
       </c>
       <c r="D23" t="n">
-        <v>1106</v>
+        <v>920</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1390,27 +1390,27 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>45845</v>
+        <v>45846</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>resident</t>
+          <t>masterdata-tam</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>1126</v>
+        <v>945</v>
       </c>
       <c r="D24" t="n">
-        <v>1117</v>
+        <v>920</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1418,27 +1418,27 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>45846</v>
+        <v>45845</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>dsl</t>
+          <t>masterdata-tam</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>945</v>
       </c>
       <c r="D25" t="n">
-        <v>3</v>
+        <v>920</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1446,29 +1446,337 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
+        <v>45847</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>pms</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>509</v>
+      </c>
+      <c r="D26" t="n">
+        <v>332</v>
+      </c>
+      <c r="E26" t="n">
+        <v>134</v>
+      </c>
+      <c r="F26" t="n">
+        <v>31</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>45846</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>pms</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>509</v>
+      </c>
+      <c r="D27" t="n">
+        <v>332</v>
+      </c>
+      <c r="E27" t="n">
+        <v>134</v>
+      </c>
+      <c r="F27" t="n">
+        <v>31</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
         <v>45845</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>pms</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>509</v>
+      </c>
+      <c r="D28" t="n">
+        <v>497</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>45847</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>288</v>
+      </c>
+      <c r="D29" t="n">
+        <v>280</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>6</v>
+      </c>
+      <c r="G29" t="n">
+        <v>2</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>45846</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>288</v>
+      </c>
+      <c r="D30" t="n">
+        <v>280</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
+        <v>6</v>
+      </c>
+      <c r="G30" t="n">
+        <v>2</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>45845</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>288</v>
+      </c>
+      <c r="D31" t="n">
+        <v>280</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>6</v>
+      </c>
+      <c r="G31" t="n">
+        <v>2</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>45847</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>1126</v>
+      </c>
+      <c r="D32" t="n">
+        <v>880</v>
+      </c>
+      <c r="E32" t="n">
+        <v>12</v>
+      </c>
+      <c r="F32" t="n">
+        <v>234</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>45846</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>1126</v>
+      </c>
+      <c r="D33" t="n">
+        <v>1106</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" t="n">
+        <v>20</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>45845</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>1126</v>
+      </c>
+      <c r="D34" t="n">
+        <v>1117</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>9</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>45847</v>
+      </c>
+      <c r="B35" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="C26" t="n">
+      <c r="C35" t="n">
         <v>3</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D35" t="n">
         <v>2</v>
       </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
         <v>1</v>
       </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>45846</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>3</v>
+      </c>
+      <c r="D36" t="n">
+        <v>3</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>45845</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>3</v>
+      </c>
+      <c r="D37" t="n">
+        <v>2</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
+        <v>1</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
         <v>0</v>
       </c>
     </row>

--- a/minio-report-tracker/xlxs/cellbox21.xlsx
+++ b/minio-report-tracker/xlxs/cellbox21.xlsx
@@ -723,7 +723,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H39"/>
+  <dimension ref="A1:H49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -785,7 +785,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>45847</v>
+        <v>45848</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -796,13 +796,13 @@
         <v>512</v>
       </c>
       <c r="D2" t="n">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G2" t="n">
         <v>4</v>
@@ -813,7 +813,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>45846</v>
+        <v>45847</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -824,13 +824,13 @@
         <v>512</v>
       </c>
       <c r="D3" t="n">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G3" t="n">
         <v>4</v>
@@ -841,7 +841,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>45845</v>
+        <v>45846</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -852,13 +852,13 @@
         <v>512</v>
       </c>
       <c r="D4" t="n">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G4" t="n">
         <v>4</v>
@@ -869,27 +869,27 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>45844</v>
+        <v>45845</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>dsl</t>
+          <t>auth</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>512</v>
       </c>
       <c r="D5" t="n">
-        <v>2</v>
+        <v>493</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -897,7 +897,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>45843</v>
+        <v>45844</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -925,7 +925,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>45847</v>
+        <v>45848</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -936,13 +936,13 @@
         <v>410</v>
       </c>
       <c r="D7" t="n">
-        <v>322</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>326</v>
       </c>
       <c r="F7" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>84</v>
@@ -953,7 +953,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>45846</v>
+        <v>45847</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -964,13 +964,13 @@
         <v>410</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>322</v>
       </c>
       <c r="E8" t="n">
-        <v>326</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G8" t="n">
         <v>84</v>
@@ -981,7 +981,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>45845</v>
+        <v>45846</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -992,13 +992,13 @@
         <v>410</v>
       </c>
       <c r="D9" t="n">
-        <v>322</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>326</v>
       </c>
       <c r="F9" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>84</v>
@@ -1009,27 +1009,27 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>45847</v>
+        <v>45845</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>masterdata-ara</t>
+          <t>idrepo</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>945</v>
+        <v>410</v>
       </c>
       <c r="D10" t="n">
-        <v>920</v>
+        <v>322</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G10" t="n">
-        <v>15</v>
+        <v>84</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1037,7 +1037,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>45846</v>
+        <v>45848</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -1065,7 +1065,7 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>45845</v>
+        <v>45847</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -1093,18 +1093,18 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>45847</v>
+        <v>45846</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>masterdata-eng</t>
+          <t>masterdata-ara</t>
         </is>
       </c>
       <c r="C13" t="n">
         <v>945</v>
       </c>
       <c r="D13" t="n">
-        <v>935</v>
+        <v>920</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>10</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1121,18 +1121,18 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>45846</v>
+        <v>45845</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>masterdata-eng</t>
+          <t>masterdata-ara</t>
         </is>
       </c>
       <c r="C14" t="n">
         <v>945</v>
       </c>
       <c r="D14" t="n">
-        <v>935</v>
+        <v>920</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1141,7 +1141,7 @@
         <v>10</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1149,7 +1149,7 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>45845</v>
+        <v>45848</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1181,14 +1181,14 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>masterdata-fra</t>
+          <t>masterdata-eng</t>
         </is>
       </c>
       <c r="C16" t="n">
         <v>945</v>
       </c>
       <c r="D16" t="n">
-        <v>920</v>
+        <v>935</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1197,7 +1197,7 @@
         <v>10</v>
       </c>
       <c r="G16" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1209,14 +1209,14 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>masterdata-fra</t>
+          <t>masterdata-eng</t>
         </is>
       </c>
       <c r="C17" t="n">
         <v>945</v>
       </c>
       <c r="D17" t="n">
-        <v>920</v>
+        <v>935</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -1225,7 +1225,7 @@
         <v>10</v>
       </c>
       <c r="G17" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1237,14 +1237,14 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>masterdata-fra</t>
+          <t>masterdata-eng</t>
         </is>
       </c>
       <c r="C18" t="n">
         <v>945</v>
       </c>
       <c r="D18" t="n">
-        <v>920</v>
+        <v>935</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -1253,7 +1253,7 @@
         <v>10</v>
       </c>
       <c r="G18" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1261,11 +1261,11 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>45847</v>
+        <v>45848</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>masterdata-hin</t>
+          <t>masterdata-fra</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -1289,11 +1289,11 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>45846</v>
+        <v>45847</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>masterdata-hin</t>
+          <t>masterdata-fra</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -1317,11 +1317,11 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>45845</v>
+        <v>45846</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>masterdata-hin</t>
+          <t>masterdata-fra</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -1345,11 +1345,11 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>45847</v>
+        <v>45845</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>masterdata-kan</t>
+          <t>masterdata-fra</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -1373,11 +1373,11 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>45846</v>
+        <v>45848</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>masterdata-kan</t>
+          <t>masterdata-hin</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -1401,11 +1401,11 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>45845</v>
+        <v>45847</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>masterdata-kan</t>
+          <t>masterdata-hin</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -1429,11 +1429,11 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>45847</v>
+        <v>45846</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>masterdata-tam</t>
+          <t>masterdata-hin</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -1457,11 +1457,11 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>45846</v>
+        <v>45845</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>masterdata-tam</t>
+          <t>masterdata-hin</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -1485,11 +1485,11 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>45845</v>
+        <v>45848</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>masterdata-tam</t>
+          <t>masterdata-kan</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -1517,26 +1517,26 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pms</t>
+          <t>masterdata-kan</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>509</v>
+        <v>945</v>
       </c>
       <c r="D28" t="n">
-        <v>332</v>
+        <v>920</v>
       </c>
       <c r="E28" t="n">
-        <v>134</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H28" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1545,26 +1545,26 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pms</t>
+          <t>masterdata-kan</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>509</v>
+        <v>945</v>
       </c>
       <c r="D29" t="n">
-        <v>332</v>
+        <v>920</v>
       </c>
       <c r="E29" t="n">
-        <v>134</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H29" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1573,51 +1573,51 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pms</t>
+          <t>masterdata-kan</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>509</v>
+        <v>945</v>
       </c>
       <c r="D30" t="n">
-        <v>497</v>
+        <v>920</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H30" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>45847</v>
+        <v>45848</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>prereg</t>
+          <t>masterdata-tam</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>288</v>
+        <v>945</v>
       </c>
       <c r="D31" t="n">
-        <v>280</v>
+        <v>920</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G31" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1625,27 +1625,27 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>45846</v>
+        <v>45847</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>prereg</t>
+          <t>masterdata-tam</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>288</v>
+        <v>945</v>
       </c>
       <c r="D32" t="n">
-        <v>280</v>
+        <v>920</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G32" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1653,27 +1653,27 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>45845</v>
+        <v>45846</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>prereg</t>
+          <t>masterdata-tam</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>288</v>
+        <v>945</v>
       </c>
       <c r="D33" t="n">
-        <v>280</v>
+        <v>920</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G33" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1681,27 +1681,27 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>45847</v>
+        <v>45845</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>resident</t>
+          <t>masterdata-tam</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>1126</v>
+        <v>945</v>
       </c>
       <c r="D34" t="n">
-        <v>880</v>
+        <v>920</v>
       </c>
       <c r="E34" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>234</v>
+        <v>10</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1709,102 +1709,102 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>45846</v>
+        <v>45848</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>resident</t>
+          <t>pms</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>1126</v>
+        <v>509</v>
       </c>
       <c r="D35" t="n">
-        <v>1106</v>
+        <v>332</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>134</v>
       </c>
       <c r="F35" t="n">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>45845</v>
+        <v>45847</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>resident</t>
+          <t>pms</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>1126</v>
+        <v>509</v>
       </c>
       <c r="D36" t="n">
-        <v>1117</v>
+        <v>332</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>134</v>
       </c>
       <c r="F36" t="n">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>45847</v>
+        <v>45846</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>dsl</t>
+          <t>pms</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>509</v>
       </c>
       <c r="D37" t="n">
-        <v>2</v>
+        <v>332</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>134</v>
       </c>
       <c r="F37" t="n">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>45846</v>
+        <v>45845</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>dsl</t>
+          <t>pms</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>509</v>
       </c>
       <c r="D38" t="n">
-        <v>3</v>
+        <v>497</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -1816,34 +1816,314 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
+        <v>45848</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>288</v>
+      </c>
+      <c r="D39" t="n">
+        <v>280</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" t="n">
+        <v>6</v>
+      </c>
+      <c r="G39" t="n">
+        <v>2</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>45847</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>288</v>
+      </c>
+      <c r="D40" t="n">
+        <v>280</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
+        <v>6</v>
+      </c>
+      <c r="G40" t="n">
+        <v>2</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>45846</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>288</v>
+      </c>
+      <c r="D41" t="n">
+        <v>280</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>6</v>
+      </c>
+      <c r="G41" t="n">
+        <v>2</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
         <v>45845</v>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>288</v>
+      </c>
+      <c r="D42" t="n">
+        <v>280</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0</v>
+      </c>
+      <c r="F42" t="n">
+        <v>6</v>
+      </c>
+      <c r="G42" t="n">
+        <v>2</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>45848</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>1126</v>
+      </c>
+      <c r="D43" t="n">
+        <v>874</v>
+      </c>
+      <c r="E43" t="n">
+        <v>12</v>
+      </c>
+      <c r="F43" t="n">
+        <v>240</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>45847</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>1126</v>
+      </c>
+      <c r="D44" t="n">
+        <v>880</v>
+      </c>
+      <c r="E44" t="n">
+        <v>12</v>
+      </c>
+      <c r="F44" t="n">
+        <v>234</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>45846</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>1126</v>
+      </c>
+      <c r="D45" t="n">
+        <v>1106</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" t="n">
+        <v>20</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>45845</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>1126</v>
+      </c>
+      <c r="D46" t="n">
+        <v>1117</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" t="n">
+        <v>9</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45847</v>
+      </c>
+      <c r="B47" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="C39" t="n">
+      <c r="C47" t="n">
         <v>3</v>
       </c>
-      <c r="D39" t="n">
+      <c r="D47" t="n">
         <v>2</v>
       </c>
-      <c r="E39" t="n">
-        <v>0</v>
-      </c>
-      <c r="F39" t="n">
+      <c r="E47" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" t="n">
         <v>1</v>
       </c>
-      <c r="G39" t="n">
-        <v>0</v>
-      </c>
-      <c r="H39" t="n">
+      <c r="G47" t="n">
+        <v>0</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>45846</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>3</v>
+      </c>
+      <c r="D48" t="n">
+        <v>3</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>45845</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>3</v>
+      </c>
+      <c r="D49" t="n">
+        <v>2</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0</v>
+      </c>
+      <c r="F49" t="n">
+        <v>1</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0</v>
+      </c>
+      <c r="H49" t="n">
         <v>0</v>
       </c>
     </row>

--- a/minio-report-tracker/xlxs/cellbox21.xlsx
+++ b/minio-report-tracker/xlxs/cellbox21.xlsx
@@ -723,7 +723,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H49"/>
+  <dimension ref="A1:H59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -785,7 +785,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>45848</v>
+        <v>45849</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -796,13 +796,13 @@
         <v>512</v>
       </c>
       <c r="D2" t="n">
-        <v>492</v>
+        <v>198</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>157</v>
       </c>
       <c r="F2" t="n">
-        <v>16</v>
+        <v>153</v>
       </c>
       <c r="G2" t="n">
         <v>4</v>
@@ -813,7 +813,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>45847</v>
+        <v>45848</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -824,13 +824,13 @@
         <v>512</v>
       </c>
       <c r="D3" t="n">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G3" t="n">
         <v>4</v>
@@ -841,7 +841,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>45846</v>
+        <v>45847</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -852,13 +852,13 @@
         <v>512</v>
       </c>
       <c r="D4" t="n">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G4" t="n">
         <v>4</v>
@@ -869,7 +869,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>45845</v>
+        <v>45846</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -880,13 +880,13 @@
         <v>512</v>
       </c>
       <c r="D5" t="n">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G5" t="n">
         <v>4</v>
@@ -897,27 +897,27 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>45844</v>
+        <v>45845</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>dsl</t>
+          <t>auth</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>512</v>
       </c>
       <c r="D6" t="n">
-        <v>2</v>
+        <v>493</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -925,7 +925,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>45848</v>
+        <v>45849</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -936,13 +936,13 @@
         <v>410</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>322</v>
       </c>
       <c r="E7" t="n">
-        <v>326</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G7" t="n">
         <v>84</v>
@@ -953,7 +953,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>45847</v>
+        <v>45848</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -964,13 +964,13 @@
         <v>410</v>
       </c>
       <c r="D8" t="n">
-        <v>322</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>326</v>
       </c>
       <c r="F8" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>84</v>
@@ -981,7 +981,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>45846</v>
+        <v>45847</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -992,13 +992,13 @@
         <v>410</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>322</v>
       </c>
       <c r="E9" t="n">
-        <v>326</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G9" t="n">
         <v>84</v>
@@ -1009,7 +1009,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>45845</v>
+        <v>45846</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -1020,13 +1020,13 @@
         <v>410</v>
       </c>
       <c r="D10" t="n">
-        <v>322</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>326</v>
       </c>
       <c r="F10" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>84</v>
@@ -1037,27 +1037,27 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>45848</v>
+        <v>45845</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>masterdata-ara</t>
+          <t>idrepo</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>945</v>
+        <v>410</v>
       </c>
       <c r="D11" t="n">
-        <v>920</v>
+        <v>322</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G11" t="n">
-        <v>15</v>
+        <v>84</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1065,7 +1065,7 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>45847</v>
+        <v>45849</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -1093,7 +1093,7 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>45846</v>
+        <v>45848</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1121,7 +1121,7 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>45845</v>
+        <v>45847</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1149,18 +1149,18 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>45848</v>
+        <v>45846</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>masterdata-eng</t>
+          <t>masterdata-ara</t>
         </is>
       </c>
       <c r="C15" t="n">
         <v>945</v>
       </c>
       <c r="D15" t="n">
-        <v>935</v>
+        <v>920</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -1169,7 +1169,7 @@
         <v>10</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1177,18 +1177,18 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>45847</v>
+        <v>45845</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>masterdata-eng</t>
+          <t>masterdata-ara</t>
         </is>
       </c>
       <c r="C16" t="n">
         <v>945</v>
       </c>
       <c r="D16" t="n">
-        <v>935</v>
+        <v>920</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1197,7 +1197,7 @@
         <v>10</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1205,7 +1205,7 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>45846</v>
+        <v>45849</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1233,7 +1233,7 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>45845</v>
+        <v>45848</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1261,18 +1261,18 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>45848</v>
+        <v>45847</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>masterdata-fra</t>
+          <t>masterdata-eng</t>
         </is>
       </c>
       <c r="C19" t="n">
         <v>945</v>
       </c>
       <c r="D19" t="n">
-        <v>920</v>
+        <v>935</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -1281,7 +1281,7 @@
         <v>10</v>
       </c>
       <c r="G19" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1289,18 +1289,18 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>45847</v>
+        <v>45846</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>masterdata-fra</t>
+          <t>masterdata-eng</t>
         </is>
       </c>
       <c r="C20" t="n">
         <v>945</v>
       </c>
       <c r="D20" t="n">
-        <v>920</v>
+        <v>935</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>10</v>
       </c>
       <c r="G20" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1317,18 +1317,18 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>45846</v>
+        <v>45845</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>masterdata-fra</t>
+          <t>masterdata-eng</t>
         </is>
       </c>
       <c r="C21" t="n">
         <v>945</v>
       </c>
       <c r="D21" t="n">
-        <v>920</v>
+        <v>935</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -1337,7 +1337,7 @@
         <v>10</v>
       </c>
       <c r="G21" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1345,7 +1345,7 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>45845</v>
+        <v>45849</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -1377,7 +1377,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>masterdata-hin</t>
+          <t>masterdata-fra</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -1405,7 +1405,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>masterdata-hin</t>
+          <t>masterdata-fra</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -1433,7 +1433,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>masterdata-hin</t>
+          <t>masterdata-fra</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -1461,7 +1461,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>masterdata-hin</t>
+          <t>masterdata-fra</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -1485,11 +1485,11 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>45848</v>
+        <v>45849</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>masterdata-kan</t>
+          <t>masterdata-hin</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -1513,11 +1513,11 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>45847</v>
+        <v>45848</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>masterdata-kan</t>
+          <t>masterdata-hin</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -1541,11 +1541,11 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>45846</v>
+        <v>45847</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>masterdata-kan</t>
+          <t>masterdata-hin</t>
         </is>
       </c>
       <c r="C29" t="n">
@@ -1569,11 +1569,11 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>45845</v>
+        <v>45846</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>masterdata-kan</t>
+          <t>masterdata-hin</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -1597,11 +1597,11 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>45848</v>
+        <v>45845</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>masterdata-tam</t>
+          <t>masterdata-hin</t>
         </is>
       </c>
       <c r="C31" t="n">
@@ -1625,11 +1625,11 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>45847</v>
+        <v>45849</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>masterdata-tam</t>
+          <t>masterdata-kan</t>
         </is>
       </c>
       <c r="C32" t="n">
@@ -1653,11 +1653,11 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>45846</v>
+        <v>45848</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>masterdata-tam</t>
+          <t>masterdata-kan</t>
         </is>
       </c>
       <c r="C33" t="n">
@@ -1681,11 +1681,11 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>45845</v>
+        <v>45847</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>masterdata-tam</t>
+          <t>masterdata-kan</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -1709,139 +1709,139 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>45848</v>
+        <v>45846</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pms</t>
+          <t>masterdata-kan</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>509</v>
+        <v>945</v>
       </c>
       <c r="D35" t="n">
-        <v>332</v>
+        <v>920</v>
       </c>
       <c r="E35" t="n">
-        <v>134</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H35" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>45847</v>
+        <v>45845</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pms</t>
+          <t>masterdata-kan</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>509</v>
+        <v>945</v>
       </c>
       <c r="D36" t="n">
-        <v>332</v>
+        <v>920</v>
       </c>
       <c r="E36" t="n">
-        <v>134</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H36" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>45846</v>
+        <v>45849</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pms</t>
+          <t>masterdata-tam</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>509</v>
+        <v>945</v>
       </c>
       <c r="D37" t="n">
-        <v>332</v>
+        <v>920</v>
       </c>
       <c r="E37" t="n">
-        <v>134</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H37" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>45845</v>
+        <v>45848</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pms</t>
+          <t>masterdata-tam</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>509</v>
+        <v>945</v>
       </c>
       <c r="D38" t="n">
-        <v>497</v>
+        <v>920</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H38" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>45848</v>
+        <v>45847</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>prereg</t>
+          <t>masterdata-tam</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>288</v>
+        <v>945</v>
       </c>
       <c r="D39" t="n">
-        <v>280</v>
+        <v>920</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G39" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1849,27 +1849,27 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>45847</v>
+        <v>45846</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>prereg</t>
+          <t>masterdata-tam</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>288</v>
+        <v>945</v>
       </c>
       <c r="D40" t="n">
-        <v>280</v>
+        <v>920</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G40" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1877,27 +1877,27 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>45846</v>
+        <v>45845</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>prereg</t>
+          <t>masterdata-tam</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>288</v>
+        <v>945</v>
       </c>
       <c r="D41" t="n">
-        <v>280</v>
+        <v>920</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G41" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1905,30 +1905,30 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>45845</v>
+        <v>45849</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>prereg</t>
+          <t>pms</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>288</v>
+        <v>509</v>
       </c>
       <c r="D42" t="n">
-        <v>280</v>
+        <v>332</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>134</v>
       </c>
       <c r="F42" t="n">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="G42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43">
@@ -1937,26 +1937,26 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>resident</t>
+          <t>pms</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>1126</v>
+        <v>509</v>
       </c>
       <c r="D43" t="n">
-        <v>874</v>
+        <v>332</v>
       </c>
       <c r="E43" t="n">
+        <v>134</v>
+      </c>
+      <c r="F43" t="n">
+        <v>31</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
         <v>12</v>
-      </c>
-      <c r="F43" t="n">
-        <v>240</v>
-      </c>
-      <c r="G43" t="n">
-        <v>0</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1965,26 +1965,26 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>resident</t>
+          <t>pms</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>1126</v>
+        <v>509</v>
       </c>
       <c r="D44" t="n">
-        <v>880</v>
+        <v>332</v>
       </c>
       <c r="E44" t="n">
+        <v>134</v>
+      </c>
+      <c r="F44" t="n">
+        <v>31</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
         <v>12</v>
-      </c>
-      <c r="F44" t="n">
-        <v>234</v>
-      </c>
-      <c r="G44" t="n">
-        <v>0</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -1993,26 +1993,26 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>resident</t>
+          <t>pms</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>1126</v>
+        <v>509</v>
       </c>
       <c r="D45" t="n">
-        <v>1106</v>
+        <v>332</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>134</v>
       </c>
       <c r="F45" t="n">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46">
@@ -2021,51 +2021,51 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>resident</t>
+          <t>pms</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>1126</v>
+        <v>509</v>
       </c>
       <c r="D46" t="n">
-        <v>1117</v>
+        <v>497</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>45847</v>
+        <v>45849</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>dsl</t>
+          <t>prereg</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>288</v>
       </c>
       <c r="D47" t="n">
+        <v>280</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" t="n">
+        <v>6</v>
+      </c>
+      <c r="G47" t="n">
         <v>2</v>
-      </c>
-      <c r="E47" t="n">
-        <v>0</v>
-      </c>
-      <c r="F47" t="n">
-        <v>1</v>
-      </c>
-      <c r="G47" t="n">
-        <v>0</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2073,27 +2073,27 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>45846</v>
+        <v>45848</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>dsl</t>
+          <t>prereg</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>288</v>
       </c>
       <c r="D48" t="n">
-        <v>3</v>
+        <v>280</v>
       </c>
       <c r="E48" t="n">
         <v>0</v>
       </c>
       <c r="F48" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2101,29 +2101,309 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
+        <v>45847</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>288</v>
+      </c>
+      <c r="D49" t="n">
+        <v>280</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0</v>
+      </c>
+      <c r="F49" t="n">
+        <v>6</v>
+      </c>
+      <c r="G49" t="n">
+        <v>2</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>45846</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>288</v>
+      </c>
+      <c r="D50" t="n">
+        <v>280</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0</v>
+      </c>
+      <c r="F50" t="n">
+        <v>6</v>
+      </c>
+      <c r="G50" t="n">
+        <v>2</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
         <v>45845</v>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>288</v>
+      </c>
+      <c r="D51" t="n">
+        <v>280</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0</v>
+      </c>
+      <c r="F51" t="n">
+        <v>6</v>
+      </c>
+      <c r="G51" t="n">
+        <v>2</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>45849</v>
+      </c>
+      <c r="B52" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="C49" t="n">
+      <c r="C52" t="n">
+        <v>197</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0</v>
+      </c>
+      <c r="E52" t="n">
+        <v>195</v>
+      </c>
+      <c r="F52" t="n">
+        <v>2</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>45848</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>1126</v>
+      </c>
+      <c r="D53" t="n">
+        <v>874</v>
+      </c>
+      <c r="E53" t="n">
+        <v>12</v>
+      </c>
+      <c r="F53" t="n">
+        <v>240</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>45847</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>1126</v>
+      </c>
+      <c r="D54" t="n">
+        <v>880</v>
+      </c>
+      <c r="E54" t="n">
+        <v>12</v>
+      </c>
+      <c r="F54" t="n">
+        <v>234</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>45846</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>1126</v>
+      </c>
+      <c r="D55" t="n">
+        <v>1106</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0</v>
+      </c>
+      <c r="F55" t="n">
+        <v>20</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>45845</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>1126</v>
+      </c>
+      <c r="D56" t="n">
+        <v>1117</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0</v>
+      </c>
+      <c r="F56" t="n">
+        <v>9</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>45847</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
         <v>3</v>
       </c>
-      <c r="D49" t="n">
+      <c r="D57" t="n">
         <v>2</v>
       </c>
-      <c r="E49" t="n">
-        <v>0</v>
-      </c>
-      <c r="F49" t="n">
+      <c r="E57" t="n">
+        <v>0</v>
+      </c>
+      <c r="F57" t="n">
         <v>1</v>
       </c>
-      <c r="G49" t="n">
-        <v>0</v>
-      </c>
-      <c r="H49" t="n">
+      <c r="G57" t="n">
+        <v>0</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>45846</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>3</v>
+      </c>
+      <c r="D58" t="n">
+        <v>3</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>45845</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>3</v>
+      </c>
+      <c r="D59" t="n">
+        <v>2</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0</v>
+      </c>
+      <c r="F59" t="n">
+        <v>1</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0</v>
+      </c>
+      <c r="H59" t="n">
         <v>0</v>
       </c>
     </row>

--- a/minio-report-tracker/xlxs/cellbox21.xlsx
+++ b/minio-report-tracker/xlxs/cellbox21.xlsx
@@ -723,7 +723,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H59"/>
+  <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -734,7 +734,7 @@
     <col width="21" customWidth="1" min="1" max="1"/>
     <col width="16" customWidth="1" min="2" max="2"/>
     <col width="6" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
+    <col width="5" customWidth="1" min="4" max="4"/>
     <col width="5" customWidth="1" min="5" max="5"/>
     <col width="5" customWidth="1" min="6" max="6"/>
     <col width="4" customWidth="1" min="7" max="7"/>
@@ -785,7 +785,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>45849</v>
+        <v>45852</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -796,13 +796,13 @@
         <v>512</v>
       </c>
       <c r="D2" t="n">
-        <v>198</v>
+        <v>464</v>
       </c>
       <c r="E2" t="n">
-        <v>157</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>153</v>
+        <v>44</v>
       </c>
       <c r="G2" t="n">
         <v>4</v>
@@ -813,27 +813,27 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>45848</v>
+        <v>45851</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>auth</t>
+          <t>dsl</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>512</v>
+        <v>197</v>
       </c>
       <c r="D3" t="n">
-        <v>492</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>195</v>
       </c>
       <c r="F3" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="G3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -841,27 +841,27 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>45847</v>
+        <v>45850</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>auth</t>
+          <t>dsl</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>512</v>
+        <v>197</v>
       </c>
       <c r="D4" t="n">
-        <v>491</v>
+        <v>9</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>17</v>
+        <v>188</v>
       </c>
       <c r="G4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -869,7 +869,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>45846</v>
+        <v>45849</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -880,13 +880,13 @@
         <v>512</v>
       </c>
       <c r="D5" t="n">
-        <v>492</v>
+        <v>198</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>157</v>
       </c>
       <c r="F5" t="n">
-        <v>16</v>
+        <v>153</v>
       </c>
       <c r="G5" t="n">
         <v>4</v>
@@ -897,7 +897,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>45845</v>
+        <v>45848</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -908,13 +908,13 @@
         <v>512</v>
       </c>
       <c r="D6" t="n">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G6" t="n">
         <v>4</v>
@@ -925,7 +925,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>45849</v>
+        <v>45852</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -953,7 +953,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>45848</v>
+        <v>45849</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -964,13 +964,13 @@
         <v>410</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>322</v>
       </c>
       <c r="E8" t="n">
-        <v>326</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G8" t="n">
         <v>84</v>
@@ -981,7 +981,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>45847</v>
+        <v>45848</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -992,13 +992,13 @@
         <v>410</v>
       </c>
       <c r="D9" t="n">
-        <v>322</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>326</v>
       </c>
       <c r="F9" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>84</v>
@@ -1009,27 +1009,27 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>45846</v>
+        <v>45852</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>idrepo</t>
+          <t>masterdata-ara</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>410</v>
+        <v>945</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>920</v>
       </c>
       <c r="E10" t="n">
-        <v>326</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G10" t="n">
-        <v>84</v>
+        <v>15</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1037,27 +1037,27 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>45845</v>
+        <v>45849</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>idrepo</t>
+          <t>masterdata-ara</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>410</v>
+        <v>945</v>
       </c>
       <c r="D11" t="n">
-        <v>322</v>
+        <v>920</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G11" t="n">
-        <v>84</v>
+        <v>15</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1065,7 +1065,7 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>45849</v>
+        <v>45848</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -1093,18 +1093,18 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>45848</v>
+        <v>45852</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>masterdata-ara</t>
+          <t>masterdata-eng</t>
         </is>
       </c>
       <c r="C13" t="n">
         <v>945</v>
       </c>
       <c r="D13" t="n">
-        <v>920</v>
+        <v>935</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>10</v>
       </c>
       <c r="G13" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1121,18 +1121,18 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>45847</v>
+        <v>45849</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>masterdata-ara</t>
+          <t>masterdata-eng</t>
         </is>
       </c>
       <c r="C14" t="n">
         <v>945</v>
       </c>
       <c r="D14" t="n">
-        <v>920</v>
+        <v>935</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1141,7 +1141,7 @@
         <v>10</v>
       </c>
       <c r="G14" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1149,18 +1149,18 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>45846</v>
+        <v>45848</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>masterdata-ara</t>
+          <t>masterdata-eng</t>
         </is>
       </c>
       <c r="C15" t="n">
         <v>945</v>
       </c>
       <c r="D15" t="n">
-        <v>920</v>
+        <v>935</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -1169,7 +1169,7 @@
         <v>10</v>
       </c>
       <c r="G15" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1177,11 +1177,11 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>45845</v>
+        <v>45852</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>masterdata-ara</t>
+          <t>masterdata-fra</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -1209,14 +1209,14 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>masterdata-eng</t>
+          <t>masterdata-fra</t>
         </is>
       </c>
       <c r="C17" t="n">
         <v>945</v>
       </c>
       <c r="D17" t="n">
-        <v>935</v>
+        <v>920</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -1225,7 +1225,7 @@
         <v>10</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1237,14 +1237,14 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>masterdata-eng</t>
+          <t>masterdata-fra</t>
         </is>
       </c>
       <c r="C18" t="n">
         <v>945</v>
       </c>
       <c r="D18" t="n">
-        <v>935</v>
+        <v>920</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -1253,7 +1253,7 @@
         <v>10</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1261,18 +1261,18 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>45847</v>
+        <v>45852</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>masterdata-eng</t>
+          <t>masterdata-hin</t>
         </is>
       </c>
       <c r="C19" t="n">
         <v>945</v>
       </c>
       <c r="D19" t="n">
-        <v>935</v>
+        <v>920</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -1281,7 +1281,7 @@
         <v>10</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1289,18 +1289,18 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>45846</v>
+        <v>45849</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>masterdata-eng</t>
+          <t>masterdata-hin</t>
         </is>
       </c>
       <c r="C20" t="n">
         <v>945</v>
       </c>
       <c r="D20" t="n">
-        <v>935</v>
+        <v>920</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>10</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1317,18 +1317,18 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>45845</v>
+        <v>45848</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>masterdata-eng</t>
+          <t>masterdata-hin</t>
         </is>
       </c>
       <c r="C21" t="n">
         <v>945</v>
       </c>
       <c r="D21" t="n">
-        <v>935</v>
+        <v>920</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -1337,7 +1337,7 @@
         <v>10</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1345,11 +1345,11 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>45849</v>
+        <v>45852</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>masterdata-fra</t>
+          <t>masterdata-kan</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -1373,11 +1373,11 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>45848</v>
+        <v>45849</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>masterdata-fra</t>
+          <t>masterdata-kan</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -1401,11 +1401,11 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>45847</v>
+        <v>45848</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>masterdata-fra</t>
+          <t>masterdata-kan</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -1429,11 +1429,11 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>45846</v>
+        <v>45852</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>masterdata-fra</t>
+          <t>masterdata-tam</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -1457,11 +1457,11 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>45845</v>
+        <v>45849</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>masterdata-fra</t>
+          <t>masterdata-tam</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -1485,11 +1485,11 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>45849</v>
+        <v>45848</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>masterdata-hin</t>
+          <t>masterdata-tam</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -1513,111 +1513,111 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>45848</v>
+        <v>45852</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>masterdata-hin</t>
+          <t>pms</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>945</v>
+        <v>509</v>
       </c>
       <c r="D28" t="n">
-        <v>920</v>
+        <v>332</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>134</v>
       </c>
       <c r="F28" t="n">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="G28" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>45847</v>
+        <v>45849</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>masterdata-hin</t>
+          <t>pms</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>945</v>
+        <v>509</v>
       </c>
       <c r="D29" t="n">
-        <v>920</v>
+        <v>332</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>134</v>
       </c>
       <c r="F29" t="n">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="G29" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>45846</v>
+        <v>45848</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>masterdata-hin</t>
+          <t>pms</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>945</v>
+        <v>509</v>
       </c>
       <c r="D30" t="n">
-        <v>920</v>
+        <v>332</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>134</v>
       </c>
       <c r="F30" t="n">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="G30" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>45845</v>
+        <v>45852</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>masterdata-hin</t>
+          <t>prereg</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>945</v>
+        <v>288</v>
       </c>
       <c r="D31" t="n">
-        <v>920</v>
+        <v>280</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G31" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1629,23 +1629,23 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>masterdata-kan</t>
+          <t>prereg</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>945</v>
+        <v>288</v>
       </c>
       <c r="D32" t="n">
-        <v>920</v>
+        <v>280</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G32" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1657,23 +1657,23 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>masterdata-kan</t>
+          <t>prereg</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>945</v>
+        <v>288</v>
       </c>
       <c r="D33" t="n">
-        <v>920</v>
+        <v>280</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G33" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1681,27 +1681,27 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>45847</v>
+        <v>45852</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>masterdata-kan</t>
+          <t>resident</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>945</v>
+        <v>1126</v>
       </c>
       <c r="D34" t="n">
-        <v>920</v>
+        <v>677</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>436</v>
       </c>
       <c r="F34" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G34" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1709,27 +1709,27 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>45846</v>
+        <v>45849</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>masterdata-kan</t>
+          <t>dsl</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>945</v>
+        <v>197</v>
       </c>
       <c r="D35" t="n">
-        <v>920</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>195</v>
       </c>
       <c r="F35" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G35" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1737,27 +1737,27 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>45845</v>
+        <v>45848</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>masterdata-kan</t>
+          <t>resident</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>945</v>
+        <v>1126</v>
       </c>
       <c r="D36" t="n">
-        <v>920</v>
+        <v>874</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F36" t="n">
-        <v>10</v>
+        <v>240</v>
       </c>
       <c r="G36" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1765,645 +1765,29 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>45849</v>
+        <v>45852</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>masterdata-tam</t>
+          <t>dsl</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>945</v>
+        <v>197</v>
       </c>
       <c r="D37" t="n">
-        <v>920</v>
+        <v>70</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>10</v>
+        <v>127</v>
       </c>
       <c r="G37" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>45848</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>masterdata-tam</t>
-        </is>
-      </c>
-      <c r="C38" t="n">
-        <v>945</v>
-      </c>
-      <c r="D38" t="n">
-        <v>920</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" t="n">
-        <v>10</v>
-      </c>
-      <c r="G38" t="n">
-        <v>15</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>45847</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>masterdata-tam</t>
-        </is>
-      </c>
-      <c r="C39" t="n">
-        <v>945</v>
-      </c>
-      <c r="D39" t="n">
-        <v>920</v>
-      </c>
-      <c r="E39" t="n">
-        <v>0</v>
-      </c>
-      <c r="F39" t="n">
-        <v>10</v>
-      </c>
-      <c r="G39" t="n">
-        <v>15</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>45846</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>masterdata-tam</t>
-        </is>
-      </c>
-      <c r="C40" t="n">
-        <v>945</v>
-      </c>
-      <c r="D40" t="n">
-        <v>920</v>
-      </c>
-      <c r="E40" t="n">
-        <v>0</v>
-      </c>
-      <c r="F40" t="n">
-        <v>10</v>
-      </c>
-      <c r="G40" t="n">
-        <v>15</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>45845</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>masterdata-tam</t>
-        </is>
-      </c>
-      <c r="C41" t="n">
-        <v>945</v>
-      </c>
-      <c r="D41" t="n">
-        <v>920</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" t="n">
-        <v>10</v>
-      </c>
-      <c r="G41" t="n">
-        <v>15</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>45849</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>pms</t>
-        </is>
-      </c>
-      <c r="C42" t="n">
-        <v>509</v>
-      </c>
-      <c r="D42" t="n">
-        <v>332</v>
-      </c>
-      <c r="E42" t="n">
-        <v>134</v>
-      </c>
-      <c r="F42" t="n">
-        <v>31</v>
-      </c>
-      <c r="G42" t="n">
-        <v>0</v>
-      </c>
-      <c r="H42" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>45848</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>pms</t>
-        </is>
-      </c>
-      <c r="C43" t="n">
-        <v>509</v>
-      </c>
-      <c r="D43" t="n">
-        <v>332</v>
-      </c>
-      <c r="E43" t="n">
-        <v>134</v>
-      </c>
-      <c r="F43" t="n">
-        <v>31</v>
-      </c>
-      <c r="G43" t="n">
-        <v>0</v>
-      </c>
-      <c r="H43" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>45847</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>pms</t>
-        </is>
-      </c>
-      <c r="C44" t="n">
-        <v>509</v>
-      </c>
-      <c r="D44" t="n">
-        <v>332</v>
-      </c>
-      <c r="E44" t="n">
-        <v>134</v>
-      </c>
-      <c r="F44" t="n">
-        <v>31</v>
-      </c>
-      <c r="G44" t="n">
-        <v>0</v>
-      </c>
-      <c r="H44" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>45846</v>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>pms</t>
-        </is>
-      </c>
-      <c r="C45" t="n">
-        <v>509</v>
-      </c>
-      <c r="D45" t="n">
-        <v>332</v>
-      </c>
-      <c r="E45" t="n">
-        <v>134</v>
-      </c>
-      <c r="F45" t="n">
-        <v>31</v>
-      </c>
-      <c r="G45" t="n">
-        <v>0</v>
-      </c>
-      <c r="H45" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>45845</v>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>pms</t>
-        </is>
-      </c>
-      <c r="C46" t="n">
-        <v>509</v>
-      </c>
-      <c r="D46" t="n">
-        <v>497</v>
-      </c>
-      <c r="E46" t="n">
-        <v>0</v>
-      </c>
-      <c r="F46" t="n">
-        <v>0</v>
-      </c>
-      <c r="G46" t="n">
-        <v>0</v>
-      </c>
-      <c r="H46" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>45849</v>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="C47" t="n">
-        <v>288</v>
-      </c>
-      <c r="D47" t="n">
-        <v>280</v>
-      </c>
-      <c r="E47" t="n">
-        <v>0</v>
-      </c>
-      <c r="F47" t="n">
-        <v>6</v>
-      </c>
-      <c r="G47" t="n">
-        <v>2</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>45848</v>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="C48" t="n">
-        <v>288</v>
-      </c>
-      <c r="D48" t="n">
-        <v>280</v>
-      </c>
-      <c r="E48" t="n">
-        <v>0</v>
-      </c>
-      <c r="F48" t="n">
-        <v>6</v>
-      </c>
-      <c r="G48" t="n">
-        <v>2</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
-        <v>45847</v>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="C49" t="n">
-        <v>288</v>
-      </c>
-      <c r="D49" t="n">
-        <v>280</v>
-      </c>
-      <c r="E49" t="n">
-        <v>0</v>
-      </c>
-      <c r="F49" t="n">
-        <v>6</v>
-      </c>
-      <c r="G49" t="n">
-        <v>2</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="1" t="n">
-        <v>45846</v>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="C50" t="n">
-        <v>288</v>
-      </c>
-      <c r="D50" t="n">
-        <v>280</v>
-      </c>
-      <c r="E50" t="n">
-        <v>0</v>
-      </c>
-      <c r="F50" t="n">
-        <v>6</v>
-      </c>
-      <c r="G50" t="n">
-        <v>2</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="1" t="n">
-        <v>45845</v>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="C51" t="n">
-        <v>288</v>
-      </c>
-      <c r="D51" t="n">
-        <v>280</v>
-      </c>
-      <c r="E51" t="n">
-        <v>0</v>
-      </c>
-      <c r="F51" t="n">
-        <v>6</v>
-      </c>
-      <c r="G51" t="n">
-        <v>2</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>45849</v>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="C52" t="n">
-        <v>197</v>
-      </c>
-      <c r="D52" t="n">
-        <v>0</v>
-      </c>
-      <c r="E52" t="n">
-        <v>195</v>
-      </c>
-      <c r="F52" t="n">
-        <v>2</v>
-      </c>
-      <c r="G52" t="n">
-        <v>0</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>45848</v>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>resident</t>
-        </is>
-      </c>
-      <c r="C53" t="n">
-        <v>1126</v>
-      </c>
-      <c r="D53" t="n">
-        <v>874</v>
-      </c>
-      <c r="E53" t="n">
-        <v>12</v>
-      </c>
-      <c r="F53" t="n">
-        <v>240</v>
-      </c>
-      <c r="G53" t="n">
-        <v>0</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>45847</v>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>resident</t>
-        </is>
-      </c>
-      <c r="C54" t="n">
-        <v>1126</v>
-      </c>
-      <c r="D54" t="n">
-        <v>880</v>
-      </c>
-      <c r="E54" t="n">
-        <v>12</v>
-      </c>
-      <c r="F54" t="n">
-        <v>234</v>
-      </c>
-      <c r="G54" t="n">
-        <v>0</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>45846</v>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>resident</t>
-        </is>
-      </c>
-      <c r="C55" t="n">
-        <v>1126</v>
-      </c>
-      <c r="D55" t="n">
-        <v>1106</v>
-      </c>
-      <c r="E55" t="n">
-        <v>0</v>
-      </c>
-      <c r="F55" t="n">
-        <v>20</v>
-      </c>
-      <c r="G55" t="n">
-        <v>0</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>45845</v>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>resident</t>
-        </is>
-      </c>
-      <c r="C56" t="n">
-        <v>1126</v>
-      </c>
-      <c r="D56" t="n">
-        <v>1117</v>
-      </c>
-      <c r="E56" t="n">
-        <v>0</v>
-      </c>
-      <c r="F56" t="n">
-        <v>9</v>
-      </c>
-      <c r="G56" t="n">
-        <v>0</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>45847</v>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="C57" t="n">
-        <v>3</v>
-      </c>
-      <c r="D57" t="n">
-        <v>2</v>
-      </c>
-      <c r="E57" t="n">
-        <v>0</v>
-      </c>
-      <c r="F57" t="n">
-        <v>1</v>
-      </c>
-      <c r="G57" t="n">
-        <v>0</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>45846</v>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="C58" t="n">
-        <v>3</v>
-      </c>
-      <c r="D58" t="n">
-        <v>3</v>
-      </c>
-      <c r="E58" t="n">
-        <v>0</v>
-      </c>
-      <c r="F58" t="n">
-        <v>0</v>
-      </c>
-      <c r="G58" t="n">
-        <v>0</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>45845</v>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="C59" t="n">
-        <v>3</v>
-      </c>
-      <c r="D59" t="n">
-        <v>2</v>
-      </c>
-      <c r="E59" t="n">
-        <v>0</v>
-      </c>
-      <c r="F59" t="n">
-        <v>1</v>
-      </c>
-      <c r="G59" t="n">
-        <v>0</v>
-      </c>
-      <c r="H59" t="n">
         <v>0</v>
       </c>
     </row>

--- a/minio-report-tracker/xlxs/cellbox21.xlsx
+++ b/minio-report-tracker/xlxs/cellbox21.xlsx
@@ -723,7 +723,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H37"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -785,7 +785,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>45852</v>
+        <v>45853</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -796,13 +796,13 @@
         <v>512</v>
       </c>
       <c r="D2" t="n">
-        <v>464</v>
+        <v>453</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G2" t="n">
         <v>4</v>
@@ -813,27 +813,27 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>45851</v>
+        <v>45852</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>dsl</t>
+          <t>auth</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>197</v>
+        <v>512</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>464</v>
       </c>
       <c r="E3" t="n">
-        <v>195</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>2</v>
+        <v>44</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -841,7 +841,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>45850</v>
+        <v>45851</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -852,13 +852,13 @@
         <v>197</v>
       </c>
       <c r="D4" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>195</v>
       </c>
       <c r="F4" t="n">
-        <v>188</v>
+        <v>2</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -869,27 +869,27 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>45849</v>
+        <v>45850</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>auth</t>
+          <t>dsl</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>512</v>
+        <v>197</v>
       </c>
       <c r="D5" t="n">
-        <v>198</v>
+        <v>9</v>
       </c>
       <c r="E5" t="n">
-        <v>157</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>153</v>
+        <v>188</v>
       </c>
       <c r="G5" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -897,7 +897,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>45848</v>
+        <v>45849</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -908,13 +908,13 @@
         <v>512</v>
       </c>
       <c r="D6" t="n">
-        <v>492</v>
+        <v>198</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157</v>
       </c>
       <c r="F6" t="n">
-        <v>16</v>
+        <v>153</v>
       </c>
       <c r="G6" t="n">
         <v>4</v>
@@ -925,7 +925,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>45852</v>
+        <v>45853</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -953,7 +953,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>45849</v>
+        <v>45852</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -981,7 +981,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>45848</v>
+        <v>45849</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -992,13 +992,13 @@
         <v>410</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>322</v>
       </c>
       <c r="E9" t="n">
-        <v>326</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G9" t="n">
         <v>84</v>
@@ -1009,7 +1009,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>45852</v>
+        <v>45853</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -1037,7 +1037,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>45849</v>
+        <v>45852</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -1065,7 +1065,7 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>45848</v>
+        <v>45849</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -1093,7 +1093,7 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>45852</v>
+        <v>45853</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1121,7 +1121,7 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>45849</v>
+        <v>45852</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1149,7 +1149,7 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>45848</v>
+        <v>45849</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1177,7 +1177,7 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>45852</v>
+        <v>45853</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1205,7 +1205,7 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>45849</v>
+        <v>45852</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1233,7 +1233,7 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>45848</v>
+        <v>45849</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1261,7 +1261,7 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>45852</v>
+        <v>45853</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1289,7 +1289,7 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>45849</v>
+        <v>45852</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1317,7 +1317,7 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>45848</v>
+        <v>45849</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1345,7 +1345,7 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>45852</v>
+        <v>45853</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -1373,7 +1373,7 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>45849</v>
+        <v>45852</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -1401,7 +1401,7 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>45848</v>
+        <v>45849</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -1429,7 +1429,7 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>45852</v>
+        <v>45853</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -1457,7 +1457,7 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>45849</v>
+        <v>45852</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -1485,7 +1485,7 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>45848</v>
+        <v>45849</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -1513,7 +1513,7 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>45852</v>
+        <v>45853</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -1541,7 +1541,7 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>45849</v>
+        <v>45852</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -1569,7 +1569,7 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>45848</v>
+        <v>45849</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -1597,7 +1597,7 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>45852</v>
+        <v>45853</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -1625,7 +1625,7 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>45849</v>
+        <v>45852</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -1653,7 +1653,7 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>45848</v>
+        <v>45849</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -1681,7 +1681,7 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>45852</v>
+        <v>45853</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -1692,13 +1692,13 @@
         <v>1126</v>
       </c>
       <c r="D34" t="n">
-        <v>677</v>
+        <v>867</v>
       </c>
       <c r="E34" t="n">
-        <v>436</v>
+        <v>12</v>
       </c>
       <c r="F34" t="n">
-        <v>13</v>
+        <v>247</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -1709,24 +1709,24 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>45849</v>
+        <v>45852</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>dsl</t>
+          <t>resident</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>197</v>
+        <v>1126</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>677</v>
       </c>
       <c r="E35" t="n">
-        <v>195</v>
+        <v>436</v>
       </c>
       <c r="F35" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -1737,24 +1737,24 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>45848</v>
+        <v>45849</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>resident</t>
+          <t>dsl</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>1126</v>
+        <v>197</v>
       </c>
       <c r="D36" t="n">
-        <v>874</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>12</v>
+        <v>195</v>
       </c>
       <c r="F36" t="n">
-        <v>240</v>
+        <v>2</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -1765,7 +1765,7 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>45852</v>
+        <v>45853</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -1776,18 +1776,46 @@
         <v>197</v>
       </c>
       <c r="D37" t="n">
+        <v>43</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
+        <v>154</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>45852</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>197</v>
+      </c>
+      <c r="D38" t="n">
         <v>70</v>
       </c>
-      <c r="E37" t="n">
-        <v>0</v>
-      </c>
-      <c r="F37" t="n">
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
         <v>127</v>
       </c>
-      <c r="G37" t="n">
-        <v>0</v>
-      </c>
-      <c r="H37" t="n">
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
         <v>0</v>
       </c>
     </row>

--- a/minio-report-tracker/xlxs/cellbox21.xlsx
+++ b/minio-report-tracker/xlxs/cellbox21.xlsx
@@ -723,7 +723,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H38"/>
+  <dimension ref="A1:H39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -785,7 +785,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>45853</v>
+        <v>45854</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -796,13 +796,13 @@
         <v>512</v>
       </c>
       <c r="D2" t="n">
-        <v>453</v>
+        <v>466</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="G2" t="n">
         <v>4</v>
@@ -813,7 +813,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>45852</v>
+        <v>45853</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -824,13 +824,13 @@
         <v>512</v>
       </c>
       <c r="D3" t="n">
-        <v>464</v>
+        <v>453</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G3" t="n">
         <v>4</v>
@@ -841,27 +841,27 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>45851</v>
+        <v>45852</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>dsl</t>
+          <t>auth</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>197</v>
+        <v>512</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>464</v>
       </c>
       <c r="E4" t="n">
-        <v>195</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>2</v>
+        <v>44</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -869,7 +869,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>45850</v>
+        <v>45851</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -880,13 +880,13 @@
         <v>197</v>
       </c>
       <c r="D5" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>195</v>
       </c>
       <c r="F5" t="n">
-        <v>188</v>
+        <v>2</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -897,27 +897,27 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>45849</v>
+        <v>45850</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>auth</t>
+          <t>dsl</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>512</v>
+        <v>197</v>
       </c>
       <c r="D6" t="n">
-        <v>198</v>
+        <v>9</v>
       </c>
       <c r="E6" t="n">
-        <v>157</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>153</v>
+        <v>188</v>
       </c>
       <c r="G6" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -925,7 +925,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>45853</v>
+        <v>45854</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -953,7 +953,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>45852</v>
+        <v>45853</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -981,7 +981,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>45849</v>
+        <v>45852</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -1009,7 +1009,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>45853</v>
+        <v>45854</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -1037,7 +1037,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>45852</v>
+        <v>45853</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -1065,7 +1065,7 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>45849</v>
+        <v>45852</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -1093,7 +1093,7 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>45853</v>
+        <v>45854</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1121,7 +1121,7 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>45852</v>
+        <v>45853</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1149,7 +1149,7 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>45849</v>
+        <v>45852</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1177,7 +1177,7 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>45853</v>
+        <v>45854</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1205,7 +1205,7 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>45852</v>
+        <v>45853</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1233,7 +1233,7 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>45849</v>
+        <v>45852</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1261,7 +1261,7 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>45853</v>
+        <v>45854</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1289,7 +1289,7 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>45852</v>
+        <v>45853</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1317,7 +1317,7 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>45849</v>
+        <v>45852</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1345,7 +1345,7 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>45853</v>
+        <v>45854</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -1373,7 +1373,7 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>45852</v>
+        <v>45853</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -1401,7 +1401,7 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>45849</v>
+        <v>45852</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -1429,7 +1429,7 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>45853</v>
+        <v>45854</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -1457,7 +1457,7 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>45852</v>
+        <v>45853</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -1485,7 +1485,7 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>45849</v>
+        <v>45852</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -1513,7 +1513,7 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>45853</v>
+        <v>45854</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -1541,7 +1541,7 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>45852</v>
+        <v>45853</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -1569,7 +1569,7 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>45849</v>
+        <v>45852</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -1597,7 +1597,7 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>45853</v>
+        <v>45854</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -1605,19 +1605,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="D31" t="n">
-        <v>280</v>
+        <v>225</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F31" t="n">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="G31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1625,7 +1625,7 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>45852</v>
+        <v>45853</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -1653,7 +1653,7 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>45849</v>
+        <v>45852</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -1681,7 +1681,7 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>45853</v>
+        <v>45854</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -1692,13 +1692,13 @@
         <v>1126</v>
       </c>
       <c r="D34" t="n">
-        <v>867</v>
+        <v>882</v>
       </c>
       <c r="E34" t="n">
         <v>12</v>
       </c>
       <c r="F34" t="n">
-        <v>247</v>
+        <v>232</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -1709,7 +1709,7 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>45852</v>
+        <v>45853</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -1720,13 +1720,13 @@
         <v>1126</v>
       </c>
       <c r="D35" t="n">
-        <v>677</v>
+        <v>867</v>
       </c>
       <c r="E35" t="n">
-        <v>436</v>
+        <v>12</v>
       </c>
       <c r="F35" t="n">
-        <v>13</v>
+        <v>247</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -1737,24 +1737,24 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>45849</v>
+        <v>45852</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>dsl</t>
+          <t>resident</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>197</v>
+        <v>1126</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>677</v>
       </c>
       <c r="E36" t="n">
-        <v>195</v>
+        <v>436</v>
       </c>
       <c r="F36" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -1765,7 +1765,7 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>45853</v>
+        <v>45854</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -1776,13 +1776,13 @@
         <v>197</v>
       </c>
       <c r="D37" t="n">
-        <v>43</v>
+        <v>118</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -1793,7 +1793,7 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>45852</v>
+        <v>45853</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -1804,18 +1804,46 @@
         <v>197</v>
       </c>
       <c r="D38" t="n">
+        <v>43</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>154</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>45852</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>197</v>
+      </c>
+      <c r="D39" t="n">
         <v>70</v>
       </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" t="n">
+      <c r="E39" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" t="n">
         <v>127</v>
       </c>
-      <c r="G38" t="n">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="n">
         <v>0</v>
       </c>
     </row>

--- a/minio-report-tracker/xlxs/cellbox21.xlsx
+++ b/minio-report-tracker/xlxs/cellbox21.xlsx
@@ -723,7 +723,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H39"/>
+  <dimension ref="A1:H50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -785,7 +785,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>45854</v>
+        <v>45855</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -796,16 +796,16 @@
         <v>512</v>
       </c>
       <c r="D2" t="n">
-        <v>466</v>
+        <v>116</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>207</v>
       </c>
       <c r="F2" t="n">
-        <v>42</v>
+        <v>189</v>
       </c>
       <c r="G2" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -813,7 +813,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>45853</v>
+        <v>45854</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -824,13 +824,13 @@
         <v>512</v>
       </c>
       <c r="D3" t="n">
-        <v>453</v>
+        <v>466</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="G3" t="n">
         <v>4</v>
@@ -841,7 +841,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>45852</v>
+        <v>45853</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -852,13 +852,13 @@
         <v>512</v>
       </c>
       <c r="D4" t="n">
-        <v>464</v>
+        <v>453</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G4" t="n">
         <v>4</v>
@@ -869,27 +869,27 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>45851</v>
+        <v>45852</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>dsl</t>
+          <t>auth</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>197</v>
+        <v>512</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>464</v>
       </c>
       <c r="E5" t="n">
-        <v>195</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>2</v>
+        <v>44</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -897,7 +897,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>45850</v>
+        <v>45851</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -908,13 +908,13 @@
         <v>197</v>
       </c>
       <c r="D6" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>195</v>
       </c>
       <c r="F6" t="n">
-        <v>188</v>
+        <v>2</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -925,7 +925,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>45854</v>
+        <v>45855</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -953,7 +953,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>45853</v>
+        <v>45854</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -981,7 +981,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>45852</v>
+        <v>45853</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -1009,27 +1009,27 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>45854</v>
+        <v>45852</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>masterdata-ara</t>
+          <t>idrepo</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>945</v>
+        <v>410</v>
       </c>
       <c r="D10" t="n">
-        <v>920</v>
+        <v>322</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G10" t="n">
-        <v>15</v>
+        <v>84</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1037,7 +1037,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>45853</v>
+        <v>45855</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -1065,7 +1065,7 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>45852</v>
+        <v>45854</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -1093,18 +1093,18 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>45854</v>
+        <v>45853</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>masterdata-eng</t>
+          <t>masterdata-ara</t>
         </is>
       </c>
       <c r="C13" t="n">
         <v>945</v>
       </c>
       <c r="D13" t="n">
-        <v>935</v>
+        <v>920</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>10</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1121,18 +1121,18 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>45853</v>
+        <v>45852</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>masterdata-eng</t>
+          <t>masterdata-ara</t>
         </is>
       </c>
       <c r="C14" t="n">
         <v>945</v>
       </c>
       <c r="D14" t="n">
-        <v>935</v>
+        <v>920</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1141,7 +1141,7 @@
         <v>10</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1149,7 +1149,7 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>45852</v>
+        <v>45855</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1181,14 +1181,14 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>masterdata-fra</t>
+          <t>masterdata-eng</t>
         </is>
       </c>
       <c r="C16" t="n">
         <v>945</v>
       </c>
       <c r="D16" t="n">
-        <v>920</v>
+        <v>935</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1197,7 +1197,7 @@
         <v>10</v>
       </c>
       <c r="G16" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1209,14 +1209,14 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>masterdata-fra</t>
+          <t>masterdata-eng</t>
         </is>
       </c>
       <c r="C17" t="n">
         <v>945</v>
       </c>
       <c r="D17" t="n">
-        <v>920</v>
+        <v>935</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -1225,7 +1225,7 @@
         <v>10</v>
       </c>
       <c r="G17" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1237,14 +1237,14 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>masterdata-fra</t>
+          <t>masterdata-eng</t>
         </is>
       </c>
       <c r="C18" t="n">
         <v>945</v>
       </c>
       <c r="D18" t="n">
-        <v>920</v>
+        <v>935</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -1253,7 +1253,7 @@
         <v>10</v>
       </c>
       <c r="G18" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1261,11 +1261,11 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>45854</v>
+        <v>45855</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>masterdata-hin</t>
+          <t>masterdata-fra</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -1289,11 +1289,11 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>45853</v>
+        <v>45854</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>masterdata-hin</t>
+          <t>masterdata-fra</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -1317,11 +1317,11 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>45852</v>
+        <v>45853</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>masterdata-hin</t>
+          <t>masterdata-fra</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -1345,11 +1345,11 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>45854</v>
+        <v>45852</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>masterdata-kan</t>
+          <t>masterdata-fra</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -1373,11 +1373,11 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>45853</v>
+        <v>45855</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>masterdata-kan</t>
+          <t>masterdata-hin</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -1401,11 +1401,11 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>45852</v>
+        <v>45854</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>masterdata-kan</t>
+          <t>masterdata-hin</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -1429,11 +1429,11 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>45854</v>
+        <v>45853</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>masterdata-tam</t>
+          <t>masterdata-hin</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -1457,11 +1457,11 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>45853</v>
+        <v>45852</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>masterdata-tam</t>
+          <t>masterdata-hin</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -1485,11 +1485,11 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>45852</v>
+        <v>45855</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>masterdata-tam</t>
+          <t>masterdata-kan</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -1517,26 +1517,26 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pms</t>
+          <t>masterdata-kan</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>509</v>
+        <v>945</v>
       </c>
       <c r="D28" t="n">
-        <v>332</v>
+        <v>920</v>
       </c>
       <c r="E28" t="n">
-        <v>134</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H28" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1545,26 +1545,26 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pms</t>
+          <t>masterdata-kan</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>509</v>
+        <v>945</v>
       </c>
       <c r="D29" t="n">
-        <v>332</v>
+        <v>920</v>
       </c>
       <c r="E29" t="n">
-        <v>134</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H29" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1573,51 +1573,51 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pms</t>
+          <t>masterdata-kan</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>509</v>
+        <v>945</v>
       </c>
       <c r="D30" t="n">
-        <v>332</v>
+        <v>920</v>
       </c>
       <c r="E30" t="n">
-        <v>134</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H30" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>45854</v>
+        <v>45855</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>prereg</t>
+          <t>masterdata-tam</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>281</v>
+        <v>945</v>
       </c>
       <c r="D31" t="n">
-        <v>225</v>
+        <v>920</v>
       </c>
       <c r="E31" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>52</v>
+        <v>10</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1625,27 +1625,27 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>45853</v>
+        <v>45854</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>prereg</t>
+          <t>masterdata-tam</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>288</v>
+        <v>945</v>
       </c>
       <c r="D32" t="n">
-        <v>280</v>
+        <v>920</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G32" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1653,27 +1653,27 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>45852</v>
+        <v>45853</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>prereg</t>
+          <t>masterdata-tam</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>288</v>
+        <v>945</v>
       </c>
       <c r="D33" t="n">
-        <v>280</v>
+        <v>920</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G33" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1681,27 +1681,27 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>45854</v>
+        <v>45852</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>resident</t>
+          <t>masterdata-tam</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>1126</v>
+        <v>945</v>
       </c>
       <c r="D34" t="n">
-        <v>882</v>
+        <v>920</v>
       </c>
       <c r="E34" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>232</v>
+        <v>10</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1709,141 +1709,449 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>45853</v>
+        <v>45855</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>resident</t>
+          <t>pms</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>1126</v>
+        <v>509</v>
       </c>
       <c r="D35" t="n">
-        <v>867</v>
+        <v>332</v>
       </c>
       <c r="E35" t="n">
+        <v>134</v>
+      </c>
+      <c r="F35" t="n">
+        <v>31</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
         <v>12</v>
-      </c>
-      <c r="F35" t="n">
-        <v>247</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>45852</v>
+        <v>45854</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>resident</t>
+          <t>pms</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>1126</v>
+        <v>509</v>
       </c>
       <c r="D36" t="n">
-        <v>677</v>
+        <v>332</v>
       </c>
       <c r="E36" t="n">
-        <v>436</v>
+        <v>134</v>
       </c>
       <c r="F36" t="n">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>45854</v>
+        <v>45853</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>dsl</t>
+          <t>pms</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>197</v>
+        <v>509</v>
       </c>
       <c r="D37" t="n">
-        <v>118</v>
+        <v>332</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>134</v>
       </c>
       <c r="F37" t="n">
-        <v>79</v>
+        <v>31</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>45853</v>
+        <v>45852</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>dsl</t>
+          <t>pms</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>197</v>
+        <v>509</v>
       </c>
       <c r="D38" t="n">
-        <v>43</v>
+        <v>332</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>134</v>
       </c>
       <c r="F38" t="n">
-        <v>154</v>
+        <v>31</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
+        <v>45855</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>281</v>
+      </c>
+      <c r="D39" t="n">
+        <v>225</v>
+      </c>
+      <c r="E39" t="n">
+        <v>4</v>
+      </c>
+      <c r="F39" t="n">
+        <v>52</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>45854</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>281</v>
+      </c>
+      <c r="D40" t="n">
+        <v>225</v>
+      </c>
+      <c r="E40" t="n">
+        <v>4</v>
+      </c>
+      <c r="F40" t="n">
+        <v>52</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>45853</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>288</v>
+      </c>
+      <c r="D41" t="n">
+        <v>280</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>6</v>
+      </c>
+      <c r="G41" t="n">
+        <v>2</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
         <v>45852</v>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>288</v>
+      </c>
+      <c r="D42" t="n">
+        <v>280</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0</v>
+      </c>
+      <c r="F42" t="n">
+        <v>6</v>
+      </c>
+      <c r="G42" t="n">
+        <v>2</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>45855</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>1126</v>
+      </c>
+      <c r="D43" t="n">
+        <v>887</v>
+      </c>
+      <c r="E43" t="n">
+        <v>20</v>
+      </c>
+      <c r="F43" t="n">
+        <v>219</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>45854</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>1126</v>
+      </c>
+      <c r="D44" t="n">
+        <v>882</v>
+      </c>
+      <c r="E44" t="n">
+        <v>12</v>
+      </c>
+      <c r="F44" t="n">
+        <v>232</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>45853</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>1126</v>
+      </c>
+      <c r="D45" t="n">
+        <v>867</v>
+      </c>
+      <c r="E45" t="n">
+        <v>12</v>
+      </c>
+      <c r="F45" t="n">
+        <v>247</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>45852</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>1126</v>
+      </c>
+      <c r="D46" t="n">
+        <v>677</v>
+      </c>
+      <c r="E46" t="n">
+        <v>436</v>
+      </c>
+      <c r="F46" t="n">
+        <v>13</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45855</v>
+      </c>
+      <c r="B47" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="C39" t="n">
+      <c r="C47" t="n">
         <v>197</v>
       </c>
-      <c r="D39" t="n">
+      <c r="D47" t="n">
+        <v>66</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" t="n">
+        <v>131</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>45854</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>197</v>
+      </c>
+      <c r="D48" t="n">
+        <v>118</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0</v>
+      </c>
+      <c r="F48" t="n">
+        <v>79</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>45853</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>197</v>
+      </c>
+      <c r="D49" t="n">
+        <v>43</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0</v>
+      </c>
+      <c r="F49" t="n">
+        <v>154</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>45852</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>197</v>
+      </c>
+      <c r="D50" t="n">
         <v>70</v>
       </c>
-      <c r="E39" t="n">
-        <v>0</v>
-      </c>
-      <c r="F39" t="n">
+      <c r="E50" t="n">
+        <v>0</v>
+      </c>
+      <c r="F50" t="n">
         <v>127</v>
       </c>
-      <c r="G39" t="n">
-        <v>0</v>
-      </c>
-      <c r="H39" t="n">
+      <c r="G50" t="n">
+        <v>0</v>
+      </c>
+      <c r="H50" t="n">
         <v>0</v>
       </c>
     </row>

--- a/minio-report-tracker/xlxs/cellbox21.xlsx
+++ b/minio-report-tracker/xlxs/cellbox21.xlsx
@@ -723,7 +723,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H50"/>
+  <dimension ref="A1:H61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -785,7 +785,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>45855</v>
+        <v>45856</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -796,16 +796,16 @@
         <v>512</v>
       </c>
       <c r="D2" t="n">
-        <v>116</v>
+        <v>427</v>
       </c>
       <c r="E2" t="n">
-        <v>207</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>189</v>
+        <v>81</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -813,7 +813,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>45854</v>
+        <v>45855</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -824,16 +824,16 @@
         <v>512</v>
       </c>
       <c r="D3" t="n">
-        <v>466</v>
+        <v>116</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>207</v>
       </c>
       <c r="F3" t="n">
-        <v>42</v>
+        <v>189</v>
       </c>
       <c r="G3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -841,7 +841,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>45853</v>
+        <v>45854</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -852,13 +852,13 @@
         <v>512</v>
       </c>
       <c r="D4" t="n">
-        <v>453</v>
+        <v>466</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="G4" t="n">
         <v>4</v>
@@ -869,7 +869,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>45852</v>
+        <v>45853</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -880,13 +880,13 @@
         <v>512</v>
       </c>
       <c r="D5" t="n">
-        <v>464</v>
+        <v>453</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G5" t="n">
         <v>4</v>
@@ -897,27 +897,27 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>45851</v>
+        <v>45852</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>dsl</t>
+          <t>auth</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>197</v>
+        <v>512</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>464</v>
       </c>
       <c r="E6" t="n">
-        <v>195</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>2</v>
+        <v>44</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -925,7 +925,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>45855</v>
+        <v>45856</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -953,7 +953,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>45854</v>
+        <v>45855</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -981,7 +981,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>45853</v>
+        <v>45854</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -1009,7 +1009,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>45852</v>
+        <v>45853</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -1037,27 +1037,27 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>45855</v>
+        <v>45852</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>masterdata-ara</t>
+          <t>idrepo</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>945</v>
+        <v>410</v>
       </c>
       <c r="D11" t="n">
-        <v>920</v>
+        <v>322</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G11" t="n">
-        <v>15</v>
+        <v>84</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1065,7 +1065,7 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>45854</v>
+        <v>45856</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -1093,7 +1093,7 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>45853</v>
+        <v>45855</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1121,7 +1121,7 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>45852</v>
+        <v>45854</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1149,18 +1149,18 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>45855</v>
+        <v>45853</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>masterdata-eng</t>
+          <t>masterdata-ara</t>
         </is>
       </c>
       <c r="C15" t="n">
         <v>945</v>
       </c>
       <c r="D15" t="n">
-        <v>935</v>
+        <v>920</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -1169,7 +1169,7 @@
         <v>10</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1177,18 +1177,18 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>45854</v>
+        <v>45852</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>masterdata-eng</t>
+          <t>masterdata-ara</t>
         </is>
       </c>
       <c r="C16" t="n">
         <v>945</v>
       </c>
       <c r="D16" t="n">
-        <v>935</v>
+        <v>920</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1197,7 +1197,7 @@
         <v>10</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1205,7 +1205,7 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>45853</v>
+        <v>45856</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1233,7 +1233,7 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>45852</v>
+        <v>45855</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1261,18 +1261,18 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>45855</v>
+        <v>45854</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>masterdata-fra</t>
+          <t>masterdata-eng</t>
         </is>
       </c>
       <c r="C19" t="n">
         <v>945</v>
       </c>
       <c r="D19" t="n">
-        <v>920</v>
+        <v>935</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -1281,7 +1281,7 @@
         <v>10</v>
       </c>
       <c r="G19" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1289,18 +1289,18 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>45854</v>
+        <v>45853</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>masterdata-fra</t>
+          <t>masterdata-eng</t>
         </is>
       </c>
       <c r="C20" t="n">
         <v>945</v>
       </c>
       <c r="D20" t="n">
-        <v>920</v>
+        <v>935</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>10</v>
       </c>
       <c r="G20" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1317,18 +1317,18 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>45853</v>
+        <v>45852</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>masterdata-fra</t>
+          <t>masterdata-eng</t>
         </is>
       </c>
       <c r="C21" t="n">
         <v>945</v>
       </c>
       <c r="D21" t="n">
-        <v>920</v>
+        <v>935</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -1337,7 +1337,7 @@
         <v>10</v>
       </c>
       <c r="G21" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1345,7 +1345,7 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>45852</v>
+        <v>45856</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -1377,7 +1377,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>masterdata-hin</t>
+          <t>masterdata-fra</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -1405,7 +1405,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>masterdata-hin</t>
+          <t>masterdata-fra</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -1433,7 +1433,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>masterdata-hin</t>
+          <t>masterdata-fra</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -1461,7 +1461,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>masterdata-hin</t>
+          <t>masterdata-fra</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -1485,11 +1485,11 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>45855</v>
+        <v>45856</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>masterdata-kan</t>
+          <t>masterdata-hin</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -1513,11 +1513,11 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>45854</v>
+        <v>45855</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>masterdata-kan</t>
+          <t>masterdata-hin</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -1541,11 +1541,11 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>45853</v>
+        <v>45854</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>masterdata-kan</t>
+          <t>masterdata-hin</t>
         </is>
       </c>
       <c r="C29" t="n">
@@ -1569,11 +1569,11 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>45852</v>
+        <v>45853</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>masterdata-kan</t>
+          <t>masterdata-hin</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -1597,11 +1597,11 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>45855</v>
+        <v>45852</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>masterdata-tam</t>
+          <t>masterdata-hin</t>
         </is>
       </c>
       <c r="C31" t="n">
@@ -1625,11 +1625,11 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>45854</v>
+        <v>45856</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>masterdata-tam</t>
+          <t>masterdata-kan</t>
         </is>
       </c>
       <c r="C32" t="n">
@@ -1653,11 +1653,11 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>45853</v>
+        <v>45855</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>masterdata-tam</t>
+          <t>masterdata-kan</t>
         </is>
       </c>
       <c r="C33" t="n">
@@ -1681,11 +1681,11 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>45852</v>
+        <v>45854</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>masterdata-tam</t>
+          <t>masterdata-kan</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -1709,139 +1709,139 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>45855</v>
+        <v>45853</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pms</t>
+          <t>masterdata-kan</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>509</v>
+        <v>945</v>
       </c>
       <c r="D35" t="n">
-        <v>332</v>
+        <v>920</v>
       </c>
       <c r="E35" t="n">
-        <v>134</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H35" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>45854</v>
+        <v>45852</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pms</t>
+          <t>masterdata-kan</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>509</v>
+        <v>945</v>
       </c>
       <c r="D36" t="n">
-        <v>332</v>
+        <v>920</v>
       </c>
       <c r="E36" t="n">
-        <v>134</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H36" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>45853</v>
+        <v>45856</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pms</t>
+          <t>masterdata-tam</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>509</v>
+        <v>945</v>
       </c>
       <c r="D37" t="n">
-        <v>332</v>
+        <v>920</v>
       </c>
       <c r="E37" t="n">
-        <v>134</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H37" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>45852</v>
+        <v>45855</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pms</t>
+          <t>masterdata-tam</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>509</v>
+        <v>945</v>
       </c>
       <c r="D38" t="n">
-        <v>332</v>
+        <v>920</v>
       </c>
       <c r="E38" t="n">
-        <v>134</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H38" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>45855</v>
+        <v>45854</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>prereg</t>
+          <t>masterdata-tam</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>281</v>
+        <v>945</v>
       </c>
       <c r="D39" t="n">
-        <v>225</v>
+        <v>920</v>
       </c>
       <c r="E39" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>52</v>
+        <v>10</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1849,27 +1849,27 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>45854</v>
+        <v>45853</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>prereg</t>
+          <t>masterdata-tam</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>281</v>
+        <v>945</v>
       </c>
       <c r="D40" t="n">
-        <v>225</v>
+        <v>920</v>
       </c>
       <c r="E40" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>52</v>
+        <v>10</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1877,27 +1877,27 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>45853</v>
+        <v>45852</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>prereg</t>
+          <t>masterdata-tam</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>288</v>
+        <v>945</v>
       </c>
       <c r="D41" t="n">
-        <v>280</v>
+        <v>920</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G41" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1905,30 +1905,30 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>45852</v>
+        <v>45856</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>prereg</t>
+          <t>pms</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>288</v>
+        <v>509</v>
       </c>
       <c r="D42" t="n">
-        <v>280</v>
+        <v>332</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>134</v>
       </c>
       <c r="F42" t="n">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="G42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43">
@@ -1937,26 +1937,26 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>resident</t>
+          <t>pms</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>1126</v>
+        <v>509</v>
       </c>
       <c r="D43" t="n">
-        <v>887</v>
+        <v>332</v>
       </c>
       <c r="E43" t="n">
-        <v>20</v>
+        <v>134</v>
       </c>
       <c r="F43" t="n">
-        <v>219</v>
+        <v>31</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44">
@@ -1965,26 +1965,26 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>resident</t>
+          <t>pms</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>1126</v>
+        <v>509</v>
       </c>
       <c r="D44" t="n">
-        <v>882</v>
+        <v>332</v>
       </c>
       <c r="E44" t="n">
+        <v>134</v>
+      </c>
+      <c r="F44" t="n">
+        <v>31</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
         <v>12</v>
-      </c>
-      <c r="F44" t="n">
-        <v>232</v>
-      </c>
-      <c r="G44" t="n">
-        <v>0</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -1993,26 +1993,26 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>resident</t>
+          <t>pms</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>1126</v>
+        <v>509</v>
       </c>
       <c r="D45" t="n">
-        <v>867</v>
+        <v>332</v>
       </c>
       <c r="E45" t="n">
+        <v>134</v>
+      </c>
+      <c r="F45" t="n">
+        <v>31</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" t="n">
         <v>12</v>
-      </c>
-      <c r="F45" t="n">
-        <v>247</v>
-      </c>
-      <c r="G45" t="n">
-        <v>0</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -2021,48 +2021,48 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>resident</t>
+          <t>pms</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>1126</v>
+        <v>509</v>
       </c>
       <c r="D46" t="n">
-        <v>677</v>
+        <v>332</v>
       </c>
       <c r="E46" t="n">
-        <v>436</v>
+        <v>134</v>
       </c>
       <c r="F46" t="n">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>45855</v>
+        <v>45856</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>dsl</t>
+          <t>prereg</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>197</v>
+        <v>281</v>
       </c>
       <c r="D47" t="n">
-        <v>66</v>
+        <v>225</v>
       </c>
       <c r="E47" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F47" t="n">
-        <v>131</v>
+        <v>52</v>
       </c>
       <c r="G47" t="n">
         <v>0</v>
@@ -2073,24 +2073,24 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>45854</v>
+        <v>45855</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>dsl</t>
+          <t>prereg</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>197</v>
+        <v>281</v>
       </c>
       <c r="D48" t="n">
-        <v>118</v>
+        <v>225</v>
       </c>
       <c r="E48" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F48" t="n">
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="G48" t="n">
         <v>0</v>
@@ -2101,24 +2101,24 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>45853</v>
+        <v>45854</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>dsl</t>
+          <t>prereg</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>197</v>
+        <v>281</v>
       </c>
       <c r="D49" t="n">
-        <v>43</v>
+        <v>225</v>
       </c>
       <c r="E49" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F49" t="n">
-        <v>154</v>
+        <v>52</v>
       </c>
       <c r="G49" t="n">
         <v>0</v>
@@ -2129,29 +2129,337 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
+        <v>45853</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>288</v>
+      </c>
+      <c r="D50" t="n">
+        <v>280</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0</v>
+      </c>
+      <c r="F50" t="n">
+        <v>6</v>
+      </c>
+      <c r="G50" t="n">
+        <v>2</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
         <v>45852</v>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>288</v>
+      </c>
+      <c r="D51" t="n">
+        <v>280</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0</v>
+      </c>
+      <c r="F51" t="n">
+        <v>6</v>
+      </c>
+      <c r="G51" t="n">
+        <v>2</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>45856</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>1126</v>
+      </c>
+      <c r="D52" t="n">
+        <v>879</v>
+      </c>
+      <c r="E52" t="n">
+        <v>12</v>
+      </c>
+      <c r="F52" t="n">
+        <v>235</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>45855</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>1126</v>
+      </c>
+      <c r="D53" t="n">
+        <v>887</v>
+      </c>
+      <c r="E53" t="n">
+        <v>20</v>
+      </c>
+      <c r="F53" t="n">
+        <v>219</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>45854</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>1126</v>
+      </c>
+      <c r="D54" t="n">
+        <v>882</v>
+      </c>
+      <c r="E54" t="n">
+        <v>12</v>
+      </c>
+      <c r="F54" t="n">
+        <v>232</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>45853</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>1126</v>
+      </c>
+      <c r="D55" t="n">
+        <v>867</v>
+      </c>
+      <c r="E55" t="n">
+        <v>12</v>
+      </c>
+      <c r="F55" t="n">
+        <v>247</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>45852</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>1126</v>
+      </c>
+      <c r="D56" t="n">
+        <v>677</v>
+      </c>
+      <c r="E56" t="n">
+        <v>436</v>
+      </c>
+      <c r="F56" t="n">
+        <v>13</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>45856</v>
+      </c>
+      <c r="B57" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="C50" t="n">
+      <c r="C57" t="n">
         <v>197</v>
       </c>
-      <c r="D50" t="n">
+      <c r="D57" t="n">
+        <v>0</v>
+      </c>
+      <c r="E57" t="n">
+        <v>195</v>
+      </c>
+      <c r="F57" t="n">
+        <v>2</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>45855</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>197</v>
+      </c>
+      <c r="D58" t="n">
+        <v>66</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0</v>
+      </c>
+      <c r="F58" t="n">
+        <v>131</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>45854</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>197</v>
+      </c>
+      <c r="D59" t="n">
+        <v>118</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0</v>
+      </c>
+      <c r="F59" t="n">
+        <v>79</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>45853</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>197</v>
+      </c>
+      <c r="D60" t="n">
+        <v>43</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0</v>
+      </c>
+      <c r="F60" t="n">
+        <v>154</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>45852</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>197</v>
+      </c>
+      <c r="D61" t="n">
         <v>70</v>
       </c>
-      <c r="E50" t="n">
-        <v>0</v>
-      </c>
-      <c r="F50" t="n">
+      <c r="E61" t="n">
+        <v>0</v>
+      </c>
+      <c r="F61" t="n">
         <v>127</v>
       </c>
-      <c r="G50" t="n">
-        <v>0</v>
-      </c>
-      <c r="H50" t="n">
+      <c r="G61" t="n">
+        <v>0</v>
+      </c>
+      <c r="H61" t="n">
         <v>0</v>
       </c>
     </row>

--- a/minio-report-tracker/xlxs/cellbox21.xlsx
+++ b/minio-report-tracker/xlxs/cellbox21.xlsx
@@ -723,7 +723,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H61"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -785,7 +785,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>45856</v>
+        <v>45859</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -796,13 +796,13 @@
         <v>512</v>
       </c>
       <c r="D2" t="n">
-        <v>427</v>
+        <v>198</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>157</v>
       </c>
       <c r="F2" t="n">
-        <v>81</v>
+        <v>153</v>
       </c>
       <c r="G2" t="n">
         <v>4</v>
@@ -813,24 +813,24 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>45855</v>
+        <v>45858</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>auth</t>
+          <t>dsl</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>512</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>116</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>207</v>
+        <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>189</v>
+        <v>2</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -841,27 +841,27 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>45854</v>
+        <v>45857</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>auth</t>
+          <t>dsl</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>512</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>466</v>
+        <v>2</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="G4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -869,7 +869,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>45853</v>
+        <v>45856</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -880,13 +880,13 @@
         <v>512</v>
       </c>
       <c r="D5" t="n">
-        <v>453</v>
+        <v>427</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="G5" t="n">
         <v>4</v>
@@ -897,7 +897,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>45852</v>
+        <v>45855</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -908,16 +908,16 @@
         <v>512</v>
       </c>
       <c r="D6" t="n">
-        <v>464</v>
+        <v>116</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>207</v>
       </c>
       <c r="F6" t="n">
-        <v>44</v>
+        <v>189</v>
       </c>
       <c r="G6" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -925,7 +925,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>45856</v>
+        <v>45859</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -953,7 +953,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>45855</v>
+        <v>45856</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -981,7 +981,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>45854</v>
+        <v>45855</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -1009,27 +1009,27 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>45853</v>
+        <v>45859</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>idrepo</t>
+          <t>masterdata-ara</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>410</v>
+        <v>945</v>
       </c>
       <c r="D10" t="n">
-        <v>322</v>
+        <v>920</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G10" t="n">
-        <v>84</v>
+        <v>15</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1037,27 +1037,27 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>45852</v>
+        <v>45856</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>idrepo</t>
+          <t>masterdata-ara</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>410</v>
+        <v>945</v>
       </c>
       <c r="D11" t="n">
-        <v>322</v>
+        <v>920</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G11" t="n">
-        <v>84</v>
+        <v>15</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1065,7 +1065,7 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>45856</v>
+        <v>45855</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -1093,18 +1093,18 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>45855</v>
+        <v>45859</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>masterdata-ara</t>
+          <t>masterdata-eng</t>
         </is>
       </c>
       <c r="C13" t="n">
         <v>945</v>
       </c>
       <c r="D13" t="n">
-        <v>920</v>
+        <v>935</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>10</v>
       </c>
       <c r="G13" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1121,18 +1121,18 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>45854</v>
+        <v>45856</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>masterdata-ara</t>
+          <t>masterdata-eng</t>
         </is>
       </c>
       <c r="C14" t="n">
         <v>945</v>
       </c>
       <c r="D14" t="n">
-        <v>920</v>
+        <v>935</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1141,7 +1141,7 @@
         <v>10</v>
       </c>
       <c r="G14" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1149,18 +1149,18 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>45853</v>
+        <v>45855</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>masterdata-ara</t>
+          <t>masterdata-eng</t>
         </is>
       </c>
       <c r="C15" t="n">
         <v>945</v>
       </c>
       <c r="D15" t="n">
-        <v>920</v>
+        <v>935</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -1169,7 +1169,7 @@
         <v>10</v>
       </c>
       <c r="G15" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1177,11 +1177,11 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>45852</v>
+        <v>45859</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>masterdata-ara</t>
+          <t>masterdata-fra</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -1209,14 +1209,14 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>masterdata-eng</t>
+          <t>masterdata-fra</t>
         </is>
       </c>
       <c r="C17" t="n">
         <v>945</v>
       </c>
       <c r="D17" t="n">
-        <v>935</v>
+        <v>920</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -1225,7 +1225,7 @@
         <v>10</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1237,14 +1237,14 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>masterdata-eng</t>
+          <t>masterdata-fra</t>
         </is>
       </c>
       <c r="C18" t="n">
         <v>945</v>
       </c>
       <c r="D18" t="n">
-        <v>935</v>
+        <v>920</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -1253,7 +1253,7 @@
         <v>10</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1261,18 +1261,18 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>45854</v>
+        <v>45859</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>masterdata-eng</t>
+          <t>masterdata-hin</t>
         </is>
       </c>
       <c r="C19" t="n">
         <v>945</v>
       </c>
       <c r="D19" t="n">
-        <v>935</v>
+        <v>920</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -1281,7 +1281,7 @@
         <v>10</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1289,18 +1289,18 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>45853</v>
+        <v>45856</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>masterdata-eng</t>
+          <t>masterdata-hin</t>
         </is>
       </c>
       <c r="C20" t="n">
         <v>945</v>
       </c>
       <c r="D20" t="n">
-        <v>935</v>
+        <v>920</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>10</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1317,18 +1317,18 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>45852</v>
+        <v>45855</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>masterdata-eng</t>
+          <t>masterdata-hin</t>
         </is>
       </c>
       <c r="C21" t="n">
         <v>945</v>
       </c>
       <c r="D21" t="n">
-        <v>935</v>
+        <v>920</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -1337,7 +1337,7 @@
         <v>10</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1345,11 +1345,11 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>45856</v>
+        <v>45859</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>masterdata-fra</t>
+          <t>masterdata-kan</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -1373,11 +1373,11 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>45855</v>
+        <v>45856</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>masterdata-fra</t>
+          <t>masterdata-kan</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -1401,11 +1401,11 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>45854</v>
+        <v>45855</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>masterdata-fra</t>
+          <t>masterdata-kan</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -1429,11 +1429,11 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>45853</v>
+        <v>45859</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>masterdata-fra</t>
+          <t>masterdata-tam</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -1457,11 +1457,11 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>45852</v>
+        <v>45856</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>masterdata-fra</t>
+          <t>masterdata-tam</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -1485,11 +1485,11 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>45856</v>
+        <v>45855</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>masterdata-hin</t>
+          <t>masterdata-tam</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -1513,111 +1513,111 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>45855</v>
+        <v>45859</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>masterdata-hin</t>
+          <t>pms</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>945</v>
+        <v>509</v>
       </c>
       <c r="D28" t="n">
-        <v>920</v>
+        <v>332</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>134</v>
       </c>
       <c r="F28" t="n">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="G28" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>45854</v>
+        <v>45856</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>masterdata-hin</t>
+          <t>pms</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>945</v>
+        <v>509</v>
       </c>
       <c r="D29" t="n">
-        <v>920</v>
+        <v>332</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>134</v>
       </c>
       <c r="F29" t="n">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="G29" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>45853</v>
+        <v>45855</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>masterdata-hin</t>
+          <t>pms</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>945</v>
+        <v>509</v>
       </c>
       <c r="D30" t="n">
-        <v>920</v>
+        <v>332</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>134</v>
       </c>
       <c r="F30" t="n">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="G30" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>45852</v>
+        <v>45859</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>masterdata-hin</t>
+          <t>prereg</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>945</v>
+        <v>281</v>
       </c>
       <c r="D31" t="n">
-        <v>920</v>
+        <v>225</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F31" t="n">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="G31" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1629,23 +1629,23 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>masterdata-kan</t>
+          <t>prereg</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>945</v>
+        <v>281</v>
       </c>
       <c r="D32" t="n">
-        <v>920</v>
+        <v>225</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F32" t="n">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="G32" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1657,23 +1657,23 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>masterdata-kan</t>
+          <t>prereg</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>945</v>
+        <v>281</v>
       </c>
       <c r="D33" t="n">
-        <v>920</v>
+        <v>225</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F33" t="n">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="G33" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1681,27 +1681,27 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>45854</v>
+        <v>45859</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>masterdata-kan</t>
+          <t>dsl</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>945</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
-        <v>920</v>
+        <v>2</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G34" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1709,27 +1709,27 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>45853</v>
+        <v>45856</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>masterdata-kan</t>
+          <t>resident</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>945</v>
+        <v>1126</v>
       </c>
       <c r="D35" t="n">
-        <v>920</v>
+        <v>879</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F35" t="n">
-        <v>10</v>
+        <v>235</v>
       </c>
       <c r="G35" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1737,27 +1737,27 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>45852</v>
+        <v>45855</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>masterdata-kan</t>
+          <t>resident</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>945</v>
+        <v>1126</v>
       </c>
       <c r="D36" t="n">
-        <v>920</v>
+        <v>887</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F36" t="n">
-        <v>10</v>
+        <v>219</v>
       </c>
       <c r="G36" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1769,23 +1769,23 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>masterdata-tam</t>
+          <t>dsl</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>945</v>
+        <v>197</v>
       </c>
       <c r="D37" t="n">
-        <v>920</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>195</v>
       </c>
       <c r="F37" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G37" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1797,669 +1797,25 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>masterdata-tam</t>
+          <t>dsl</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>945</v>
+        <v>197</v>
       </c>
       <c r="D38" t="n">
-        <v>920</v>
+        <v>66</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>10</v>
+        <v>131</v>
       </c>
       <c r="G38" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>45854</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>masterdata-tam</t>
-        </is>
-      </c>
-      <c r="C39" t="n">
-        <v>945</v>
-      </c>
-      <c r="D39" t="n">
-        <v>920</v>
-      </c>
-      <c r="E39" t="n">
-        <v>0</v>
-      </c>
-      <c r="F39" t="n">
-        <v>10</v>
-      </c>
-      <c r="G39" t="n">
-        <v>15</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>45853</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>masterdata-tam</t>
-        </is>
-      </c>
-      <c r="C40" t="n">
-        <v>945</v>
-      </c>
-      <c r="D40" t="n">
-        <v>920</v>
-      </c>
-      <c r="E40" t="n">
-        <v>0</v>
-      </c>
-      <c r="F40" t="n">
-        <v>10</v>
-      </c>
-      <c r="G40" t="n">
-        <v>15</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>45852</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>masterdata-tam</t>
-        </is>
-      </c>
-      <c r="C41" t="n">
-        <v>945</v>
-      </c>
-      <c r="D41" t="n">
-        <v>920</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" t="n">
-        <v>10</v>
-      </c>
-      <c r="G41" t="n">
-        <v>15</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>45856</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>pms</t>
-        </is>
-      </c>
-      <c r="C42" t="n">
-        <v>509</v>
-      </c>
-      <c r="D42" t="n">
-        <v>332</v>
-      </c>
-      <c r="E42" t="n">
-        <v>134</v>
-      </c>
-      <c r="F42" t="n">
-        <v>31</v>
-      </c>
-      <c r="G42" t="n">
-        <v>0</v>
-      </c>
-      <c r="H42" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>45855</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>pms</t>
-        </is>
-      </c>
-      <c r="C43" t="n">
-        <v>509</v>
-      </c>
-      <c r="D43" t="n">
-        <v>332</v>
-      </c>
-      <c r="E43" t="n">
-        <v>134</v>
-      </c>
-      <c r="F43" t="n">
-        <v>31</v>
-      </c>
-      <c r="G43" t="n">
-        <v>0</v>
-      </c>
-      <c r="H43" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>45854</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>pms</t>
-        </is>
-      </c>
-      <c r="C44" t="n">
-        <v>509</v>
-      </c>
-      <c r="D44" t="n">
-        <v>332</v>
-      </c>
-      <c r="E44" t="n">
-        <v>134</v>
-      </c>
-      <c r="F44" t="n">
-        <v>31</v>
-      </c>
-      <c r="G44" t="n">
-        <v>0</v>
-      </c>
-      <c r="H44" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>45853</v>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>pms</t>
-        </is>
-      </c>
-      <c r="C45" t="n">
-        <v>509</v>
-      </c>
-      <c r="D45" t="n">
-        <v>332</v>
-      </c>
-      <c r="E45" t="n">
-        <v>134</v>
-      </c>
-      <c r="F45" t="n">
-        <v>31</v>
-      </c>
-      <c r="G45" t="n">
-        <v>0</v>
-      </c>
-      <c r="H45" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>45852</v>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>pms</t>
-        </is>
-      </c>
-      <c r="C46" t="n">
-        <v>509</v>
-      </c>
-      <c r="D46" t="n">
-        <v>332</v>
-      </c>
-      <c r="E46" t="n">
-        <v>134</v>
-      </c>
-      <c r="F46" t="n">
-        <v>31</v>
-      </c>
-      <c r="G46" t="n">
-        <v>0</v>
-      </c>
-      <c r="H46" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>45856</v>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="C47" t="n">
-        <v>281</v>
-      </c>
-      <c r="D47" t="n">
-        <v>225</v>
-      </c>
-      <c r="E47" t="n">
-        <v>4</v>
-      </c>
-      <c r="F47" t="n">
-        <v>52</v>
-      </c>
-      <c r="G47" t="n">
-        <v>0</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>45855</v>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="C48" t="n">
-        <v>281</v>
-      </c>
-      <c r="D48" t="n">
-        <v>225</v>
-      </c>
-      <c r="E48" t="n">
-        <v>4</v>
-      </c>
-      <c r="F48" t="n">
-        <v>52</v>
-      </c>
-      <c r="G48" t="n">
-        <v>0</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
-        <v>45854</v>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="C49" t="n">
-        <v>281</v>
-      </c>
-      <c r="D49" t="n">
-        <v>225</v>
-      </c>
-      <c r="E49" t="n">
-        <v>4</v>
-      </c>
-      <c r="F49" t="n">
-        <v>52</v>
-      </c>
-      <c r="G49" t="n">
-        <v>0</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="1" t="n">
-        <v>45853</v>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="C50" t="n">
-        <v>288</v>
-      </c>
-      <c r="D50" t="n">
-        <v>280</v>
-      </c>
-      <c r="E50" t="n">
-        <v>0</v>
-      </c>
-      <c r="F50" t="n">
-        <v>6</v>
-      </c>
-      <c r="G50" t="n">
-        <v>2</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="1" t="n">
-        <v>45852</v>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="C51" t="n">
-        <v>288</v>
-      </c>
-      <c r="D51" t="n">
-        <v>280</v>
-      </c>
-      <c r="E51" t="n">
-        <v>0</v>
-      </c>
-      <c r="F51" t="n">
-        <v>6</v>
-      </c>
-      <c r="G51" t="n">
-        <v>2</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>45856</v>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>resident</t>
-        </is>
-      </c>
-      <c r="C52" t="n">
-        <v>1126</v>
-      </c>
-      <c r="D52" t="n">
-        <v>879</v>
-      </c>
-      <c r="E52" t="n">
-        <v>12</v>
-      </c>
-      <c r="F52" t="n">
-        <v>235</v>
-      </c>
-      <c r="G52" t="n">
-        <v>0</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>45855</v>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>resident</t>
-        </is>
-      </c>
-      <c r="C53" t="n">
-        <v>1126</v>
-      </c>
-      <c r="D53" t="n">
-        <v>887</v>
-      </c>
-      <c r="E53" t="n">
-        <v>20</v>
-      </c>
-      <c r="F53" t="n">
-        <v>219</v>
-      </c>
-      <c r="G53" t="n">
-        <v>0</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>45854</v>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>resident</t>
-        </is>
-      </c>
-      <c r="C54" t="n">
-        <v>1126</v>
-      </c>
-      <c r="D54" t="n">
-        <v>882</v>
-      </c>
-      <c r="E54" t="n">
-        <v>12</v>
-      </c>
-      <c r="F54" t="n">
-        <v>232</v>
-      </c>
-      <c r="G54" t="n">
-        <v>0</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>45853</v>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>resident</t>
-        </is>
-      </c>
-      <c r="C55" t="n">
-        <v>1126</v>
-      </c>
-      <c r="D55" t="n">
-        <v>867</v>
-      </c>
-      <c r="E55" t="n">
-        <v>12</v>
-      </c>
-      <c r="F55" t="n">
-        <v>247</v>
-      </c>
-      <c r="G55" t="n">
-        <v>0</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>45852</v>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>resident</t>
-        </is>
-      </c>
-      <c r="C56" t="n">
-        <v>1126</v>
-      </c>
-      <c r="D56" t="n">
-        <v>677</v>
-      </c>
-      <c r="E56" t="n">
-        <v>436</v>
-      </c>
-      <c r="F56" t="n">
-        <v>13</v>
-      </c>
-      <c r="G56" t="n">
-        <v>0</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>45856</v>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="C57" t="n">
-        <v>197</v>
-      </c>
-      <c r="D57" t="n">
-        <v>0</v>
-      </c>
-      <c r="E57" t="n">
-        <v>195</v>
-      </c>
-      <c r="F57" t="n">
-        <v>2</v>
-      </c>
-      <c r="G57" t="n">
-        <v>0</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>45855</v>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="C58" t="n">
-        <v>197</v>
-      </c>
-      <c r="D58" t="n">
-        <v>66</v>
-      </c>
-      <c r="E58" t="n">
-        <v>0</v>
-      </c>
-      <c r="F58" t="n">
-        <v>131</v>
-      </c>
-      <c r="G58" t="n">
-        <v>0</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>45854</v>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="C59" t="n">
-        <v>197</v>
-      </c>
-      <c r="D59" t="n">
-        <v>118</v>
-      </c>
-      <c r="E59" t="n">
-        <v>0</v>
-      </c>
-      <c r="F59" t="n">
-        <v>79</v>
-      </c>
-      <c r="G59" t="n">
-        <v>0</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>45853</v>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="C60" t="n">
-        <v>197</v>
-      </c>
-      <c r="D60" t="n">
-        <v>43</v>
-      </c>
-      <c r="E60" t="n">
-        <v>0</v>
-      </c>
-      <c r="F60" t="n">
-        <v>154</v>
-      </c>
-      <c r="G60" t="n">
-        <v>0</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>45852</v>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="C61" t="n">
-        <v>197</v>
-      </c>
-      <c r="D61" t="n">
-        <v>70</v>
-      </c>
-      <c r="E61" t="n">
-        <v>0</v>
-      </c>
-      <c r="F61" t="n">
-        <v>127</v>
-      </c>
-      <c r="G61" t="n">
-        <v>0</v>
-      </c>
-      <c r="H61" t="n">
         <v>0</v>
       </c>
     </row>

--- a/minio-report-tracker/xlxs/cellbox21.xlsx
+++ b/minio-report-tracker/xlxs/cellbox21.xlsx
@@ -723,7 +723,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H38"/>
+  <dimension ref="A1:H39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -735,7 +735,7 @@
     <col width="16" customWidth="1" min="2" max="2"/>
     <col width="6" customWidth="1" min="3" max="3"/>
     <col width="5" customWidth="1" min="4" max="4"/>
-    <col width="5" customWidth="1" min="5" max="5"/>
+    <col width="6" customWidth="1" min="5" max="5"/>
     <col width="5" customWidth="1" min="6" max="6"/>
     <col width="4" customWidth="1" min="7" max="7"/>
     <col width="4" customWidth="1" min="8" max="8"/>
@@ -785,7 +785,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>45859</v>
+        <v>45860</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -796,16 +796,16 @@
         <v>512</v>
       </c>
       <c r="D2" t="n">
-        <v>198</v>
+        <v>20</v>
       </c>
       <c r="E2" t="n">
-        <v>157</v>
+        <v>492</v>
       </c>
       <c r="F2" t="n">
-        <v>153</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -813,27 +813,27 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>45858</v>
+        <v>45859</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>dsl</t>
+          <t>auth</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>512</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>198</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>157</v>
       </c>
       <c r="F3" t="n">
-        <v>2</v>
+        <v>153</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -841,7 +841,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>45857</v>
+        <v>45858</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -852,13 +852,13 @@
         <v>3</v>
       </c>
       <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" t="n">
         <v>2</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>1</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -869,27 +869,27 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>45856</v>
+        <v>45857</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>auth</t>
+          <t>dsl</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>512</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>427</v>
+        <v>2</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>81</v>
+        <v>1</v>
       </c>
       <c r="G5" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -897,7 +897,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>45855</v>
+        <v>45856</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -908,16 +908,16 @@
         <v>512</v>
       </c>
       <c r="D6" t="n">
-        <v>116</v>
+        <v>427</v>
       </c>
       <c r="E6" t="n">
-        <v>207</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>189</v>
+        <v>81</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -925,7 +925,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>45859</v>
+        <v>45860</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -953,7 +953,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>45856</v>
+        <v>45859</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -981,7 +981,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>45855</v>
+        <v>45856</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -1009,7 +1009,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>45859</v>
+        <v>45860</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -1037,7 +1037,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>45856</v>
+        <v>45859</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -1065,7 +1065,7 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>45855</v>
+        <v>45856</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -1093,7 +1093,7 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>45859</v>
+        <v>45860</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1121,7 +1121,7 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>45856</v>
+        <v>45859</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1149,7 +1149,7 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>45855</v>
+        <v>45856</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1177,7 +1177,7 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>45859</v>
+        <v>45860</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1205,7 +1205,7 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>45856</v>
+        <v>45859</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1233,7 +1233,7 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>45855</v>
+        <v>45856</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1261,7 +1261,7 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>45859</v>
+        <v>45860</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1289,7 +1289,7 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>45856</v>
+        <v>45859</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1317,7 +1317,7 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>45855</v>
+        <v>45856</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1345,7 +1345,7 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>45859</v>
+        <v>45860</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -1373,7 +1373,7 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>45856</v>
+        <v>45859</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -1401,7 +1401,7 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>45855</v>
+        <v>45856</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -1429,7 +1429,7 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>45859</v>
+        <v>45860</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -1440,13 +1440,13 @@
         <v>945</v>
       </c>
       <c r="D25" t="n">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G25" t="n">
         <v>15</v>
@@ -1457,7 +1457,7 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>45856</v>
+        <v>45859</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -1485,7 +1485,7 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>45855</v>
+        <v>45856</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -1513,7 +1513,7 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>45859</v>
+        <v>45860</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -1541,7 +1541,7 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>45856</v>
+        <v>45859</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -1569,7 +1569,7 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>45855</v>
+        <v>45856</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -1597,7 +1597,7 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>45859</v>
+        <v>45860</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -1625,7 +1625,7 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>45856</v>
+        <v>45859</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -1653,7 +1653,7 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>45855</v>
+        <v>45856</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -1681,24 +1681,24 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>45859</v>
+        <v>45860</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>dsl</t>
+          <t>resident</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>1126</v>
       </c>
       <c r="D34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>1126</v>
       </c>
       <c r="F34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -1709,7 +1709,7 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>45856</v>
+        <v>45859</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -1720,13 +1720,13 @@
         <v>1126</v>
       </c>
       <c r="D35" t="n">
-        <v>879</v>
+        <v>31</v>
       </c>
       <c r="E35" t="n">
-        <v>12</v>
+        <v>1028</v>
       </c>
       <c r="F35" t="n">
-        <v>235</v>
+        <v>67</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -1737,7 +1737,7 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>45855</v>
+        <v>45856</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -1748,13 +1748,13 @@
         <v>1126</v>
       </c>
       <c r="D36" t="n">
-        <v>887</v>
+        <v>879</v>
       </c>
       <c r="E36" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F36" t="n">
-        <v>219</v>
+        <v>235</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -1765,7 +1765,7 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>45856</v>
+        <v>45860</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -1776,13 +1776,13 @@
         <v>197</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="E37" t="n">
-        <v>195</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>2</v>
+        <v>170</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -1793,7 +1793,7 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>45855</v>
+        <v>45859</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -1801,21 +1801,49 @@
         </is>
       </c>
       <c r="C38" t="n">
+        <v>3</v>
+      </c>
+      <c r="D38" t="n">
+        <v>2</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>1</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>45856</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
         <v>197</v>
       </c>
-      <c r="D38" t="n">
-        <v>66</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" t="n">
-        <v>131</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
+      <c r="D39" t="n">
+        <v>0</v>
+      </c>
+      <c r="E39" t="n">
+        <v>195</v>
+      </c>
+      <c r="F39" t="n">
+        <v>2</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="n">
         <v>0</v>
       </c>
     </row>

--- a/minio-report-tracker/xlxs/cellbox21.xlsx
+++ b/minio-report-tracker/xlxs/cellbox21.xlsx
@@ -723,7 +723,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H39"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -785,24 +785,24 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>45860</v>
+        <v>45861</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>auth</t>
+          <t>idrepo</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>512</v>
+        <v>410</v>
       </c>
       <c r="D2" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>492</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>410</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -813,7 +813,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>45859</v>
+        <v>45860</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -824,16 +824,16 @@
         <v>512</v>
       </c>
       <c r="D3" t="n">
-        <v>198</v>
+        <v>20</v>
       </c>
       <c r="E3" t="n">
-        <v>157</v>
+        <v>492</v>
       </c>
       <c r="F3" t="n">
-        <v>153</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -841,27 +841,27 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>45858</v>
+        <v>45859</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>dsl</t>
+          <t>auth</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>512</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>198</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>157</v>
       </c>
       <c r="F4" t="n">
-        <v>2</v>
+        <v>153</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -869,7 +869,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>45857</v>
+        <v>45858</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -880,13 +880,13 @@
         <v>3</v>
       </c>
       <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" t="n">
         <v>2</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>1</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -897,27 +897,27 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>45856</v>
+        <v>45857</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>auth</t>
+          <t>dsl</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>512</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>427</v>
+        <v>2</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>81</v>
+        <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -925,27 +925,27 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>45860</v>
+        <v>45861</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>idrepo</t>
+          <t>masterdata-ara</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>410</v>
+        <v>945</v>
       </c>
       <c r="D7" t="n">
-        <v>322</v>
+        <v>920</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G7" t="n">
-        <v>84</v>
+        <v>15</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -953,7 +953,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>45859</v>
+        <v>45860</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -981,7 +981,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>45856</v>
+        <v>45859</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -1009,18 +1009,18 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>45860</v>
+        <v>45861</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>masterdata-ara</t>
+          <t>masterdata-eng</t>
         </is>
       </c>
       <c r="C10" t="n">
         <v>945</v>
       </c>
       <c r="D10" t="n">
-        <v>920</v>
+        <v>935</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1029,7 +1029,7 @@
         <v>10</v>
       </c>
       <c r="G10" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1037,7 +1037,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>45859</v>
+        <v>45860</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -1065,7 +1065,7 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>45856</v>
+        <v>45859</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -1093,27 +1093,27 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>45860</v>
+        <v>45861</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>masterdata-eng</t>
+          <t>masterdata-fra</t>
         </is>
       </c>
       <c r="C13" t="n">
         <v>945</v>
       </c>
       <c r="D13" t="n">
-        <v>935</v>
+        <v>919</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1121,7 +1121,7 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>45859</v>
+        <v>45860</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1149,7 +1149,7 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>45856</v>
+        <v>45859</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1177,11 +1177,11 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>45860</v>
+        <v>45861</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>masterdata-fra</t>
+          <t>masterdata-hin</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -1205,7 +1205,7 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>45859</v>
+        <v>45860</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1233,7 +1233,7 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>45856</v>
+        <v>45859</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1261,11 +1261,11 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>45860</v>
+        <v>45861</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>masterdata-hin</t>
+          <t>masterdata-kan</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -1289,7 +1289,7 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>45859</v>
+        <v>45860</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1317,7 +1317,7 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>45856</v>
+        <v>45859</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1345,11 +1345,11 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>45860</v>
+        <v>45861</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>masterdata-kan</t>
+          <t>masterdata-tam</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -1373,7 +1373,7 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>45859</v>
+        <v>45860</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -1401,7 +1401,7 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>45856</v>
+        <v>45859</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -1429,35 +1429,35 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>45860</v>
+        <v>45861</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>masterdata-tam</t>
+          <t>pms</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>945</v>
+        <v>509</v>
       </c>
       <c r="D25" t="n">
-        <v>919</v>
+        <v>332</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>134</v>
       </c>
       <c r="F25" t="n">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="G25" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>45859</v>
+        <v>45860</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -1468,13 +1468,13 @@
         <v>945</v>
       </c>
       <c r="D26" t="n">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G26" t="n">
         <v>15</v>
@@ -1485,7 +1485,7 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>45856</v>
+        <v>45859</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -1513,35 +1513,35 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>45860</v>
+        <v>45861</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pms</t>
+          <t>prereg</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>509</v>
+        <v>281</v>
       </c>
       <c r="D28" t="n">
-        <v>332</v>
+        <v>1</v>
       </c>
       <c r="E28" t="n">
-        <v>134</v>
+        <v>74</v>
       </c>
       <c r="F28" t="n">
-        <v>31</v>
+        <v>206</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>45859</v>
+        <v>45860</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -1569,7 +1569,7 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>45856</v>
+        <v>45859</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -1597,24 +1597,24 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>45860</v>
+        <v>45861</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>prereg</t>
+          <t>resident</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>281</v>
+        <v>1126</v>
       </c>
       <c r="D31" t="n">
-        <v>225</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>4</v>
+        <v>1126</v>
       </c>
       <c r="F31" t="n">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -1625,7 +1625,7 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>45859</v>
+        <v>45860</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -1653,7 +1653,7 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>45856</v>
+        <v>45859</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -1681,24 +1681,24 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>45860</v>
+        <v>45861</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>resident</t>
+          <t>dsl</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>1126</v>
+        <v>197</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E34" t="n">
-        <v>1126</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>191</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -1709,7 +1709,7 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>45859</v>
+        <v>45860</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -1720,13 +1720,13 @@
         <v>1126</v>
       </c>
       <c r="D35" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>1028</v>
+        <v>1126</v>
       </c>
       <c r="F35" t="n">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -1737,7 +1737,7 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>45856</v>
+        <v>45859</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -1748,13 +1748,13 @@
         <v>1126</v>
       </c>
       <c r="D36" t="n">
-        <v>879</v>
+        <v>31</v>
       </c>
       <c r="E36" t="n">
-        <v>12</v>
+        <v>1028</v>
       </c>
       <c r="F36" t="n">
-        <v>235</v>
+        <v>67</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -1816,34 +1816,6 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>45856</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="C39" t="n">
-        <v>197</v>
-      </c>
-      <c r="D39" t="n">
-        <v>0</v>
-      </c>
-      <c r="E39" t="n">
-        <v>195</v>
-      </c>
-      <c r="F39" t="n">
-        <v>2</v>
-      </c>
-      <c r="G39" t="n">
-        <v>0</v>
-      </c>
-      <c r="H39" t="n">
         <v>0</v>
       </c>
     </row>

--- a/minio-report-tracker/xlxs/cellbox21.xlsx
+++ b/minio-report-tracker/xlxs/cellbox21.xlsx
@@ -723,7 +723,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H38"/>
+  <dimension ref="A1:H47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -785,7 +785,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>45861</v>
+        <v>45863</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -796,16 +796,16 @@
         <v>410</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>320</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>410</v>
+        <v>6</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -813,24 +813,24 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>45860</v>
+        <v>45861</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>auth</t>
+          <t>idrepo</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>512</v>
+        <v>410</v>
       </c>
       <c r="D3" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>492</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>410</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -841,7 +841,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>45859</v>
+        <v>45860</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -852,16 +852,16 @@
         <v>512</v>
       </c>
       <c r="D4" t="n">
-        <v>198</v>
+        <v>20</v>
       </c>
       <c r="E4" t="n">
-        <v>157</v>
+        <v>492</v>
       </c>
       <c r="F4" t="n">
-        <v>153</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -869,27 +869,27 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>45858</v>
+        <v>45859</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>dsl</t>
+          <t>auth</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>512</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>198</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>157</v>
       </c>
       <c r="F5" t="n">
-        <v>2</v>
+        <v>153</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -897,7 +897,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>45857</v>
+        <v>45858</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -908,13 +908,13 @@
         <v>3</v>
       </c>
       <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" t="n">
         <v>2</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>1</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -925,7 +925,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>45861</v>
+        <v>45863</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -953,27 +953,27 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>45860</v>
+        <v>45861</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>idrepo</t>
+          <t>masterdata-ara</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>410</v>
+        <v>945</v>
       </c>
       <c r="D8" t="n">
-        <v>322</v>
+        <v>920</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G8" t="n">
-        <v>84</v>
+        <v>15</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -981,7 +981,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>45859</v>
+        <v>45860</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -1009,27 +1009,27 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>45861</v>
+        <v>45859</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>masterdata-eng</t>
+          <t>idrepo</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>945</v>
+        <v>410</v>
       </c>
       <c r="D10" t="n">
-        <v>935</v>
+        <v>322</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1037,18 +1037,18 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>45860</v>
+        <v>45863</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>masterdata-ara</t>
+          <t>masterdata-eng</t>
         </is>
       </c>
       <c r="C11" t="n">
         <v>945</v>
       </c>
       <c r="D11" t="n">
-        <v>920</v>
+        <v>935</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1057,7 +1057,7 @@
         <v>10</v>
       </c>
       <c r="G11" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1065,18 +1065,18 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>45859</v>
+        <v>45861</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>masterdata-ara</t>
+          <t>masterdata-eng</t>
         </is>
       </c>
       <c r="C12" t="n">
         <v>945</v>
       </c>
       <c r="D12" t="n">
-        <v>920</v>
+        <v>935</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -1085,7 +1085,7 @@
         <v>10</v>
       </c>
       <c r="G12" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1093,24 +1093,24 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>45861</v>
+        <v>45860</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>masterdata-fra</t>
+          <t>masterdata-ara</t>
         </is>
       </c>
       <c r="C13" t="n">
         <v>945</v>
       </c>
       <c r="D13" t="n">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G13" t="n">
         <v>15</v>
@@ -1121,18 +1121,18 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>45860</v>
+        <v>45859</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>masterdata-eng</t>
+          <t>masterdata-ara</t>
         </is>
       </c>
       <c r="C14" t="n">
         <v>945</v>
       </c>
       <c r="D14" t="n">
-        <v>935</v>
+        <v>920</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1141,7 +1141,7 @@
         <v>10</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1149,18 +1149,18 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>45859</v>
+        <v>45863</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>masterdata-eng</t>
+          <t>masterdata-fra</t>
         </is>
       </c>
       <c r="C15" t="n">
         <v>945</v>
       </c>
       <c r="D15" t="n">
-        <v>935</v>
+        <v>920</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -1169,7 +1169,7 @@
         <v>10</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1181,20 +1181,20 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>masterdata-hin</t>
+          <t>masterdata-fra</t>
         </is>
       </c>
       <c r="C16" t="n">
         <v>945</v>
       </c>
       <c r="D16" t="n">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G16" t="n">
         <v>15</v>
@@ -1209,14 +1209,14 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>masterdata-fra</t>
+          <t>masterdata-eng</t>
         </is>
       </c>
       <c r="C17" t="n">
         <v>945</v>
       </c>
       <c r="D17" t="n">
-        <v>920</v>
+        <v>935</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -1225,7 +1225,7 @@
         <v>10</v>
       </c>
       <c r="G17" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1237,14 +1237,14 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>masterdata-fra</t>
+          <t>masterdata-eng</t>
         </is>
       </c>
       <c r="C18" t="n">
         <v>945</v>
       </c>
       <c r="D18" t="n">
-        <v>920</v>
+        <v>935</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -1253,7 +1253,7 @@
         <v>10</v>
       </c>
       <c r="G18" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1261,11 +1261,11 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>45861</v>
+        <v>45863</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>masterdata-kan</t>
+          <t>masterdata-hin</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -1289,7 +1289,7 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>45860</v>
+        <v>45861</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1317,11 +1317,11 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>45859</v>
+        <v>45860</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>masterdata-hin</t>
+          <t>masterdata-fra</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -1345,11 +1345,11 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>45861</v>
+        <v>45859</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>masterdata-tam</t>
+          <t>masterdata-fra</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -1373,7 +1373,7 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>45860</v>
+        <v>45863</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -1401,7 +1401,7 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>45859</v>
+        <v>45861</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -1429,52 +1429,52 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>45861</v>
+        <v>45860</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pms</t>
+          <t>masterdata-hin</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>509</v>
+        <v>945</v>
       </c>
       <c r="D25" t="n">
-        <v>332</v>
+        <v>920</v>
       </c>
       <c r="E25" t="n">
-        <v>134</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H25" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>45860</v>
+        <v>45859</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>masterdata-tam</t>
+          <t>masterdata-hin</t>
         </is>
       </c>
       <c r="C26" t="n">
         <v>945</v>
       </c>
       <c r="D26" t="n">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G26" t="n">
         <v>15</v>
@@ -1485,7 +1485,7 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>45859</v>
+        <v>45863</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -1517,23 +1517,23 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>prereg</t>
+          <t>masterdata-tam</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>281</v>
+        <v>945</v>
       </c>
       <c r="D28" t="n">
-        <v>1</v>
+        <v>920</v>
       </c>
       <c r="E28" t="n">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>206</v>
+        <v>10</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1545,26 +1545,26 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pms</t>
+          <t>masterdata-kan</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>509</v>
+        <v>945</v>
       </c>
       <c r="D29" t="n">
-        <v>332</v>
+        <v>920</v>
       </c>
       <c r="E29" t="n">
-        <v>134</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H29" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1573,107 +1573,107 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pms</t>
+          <t>masterdata-kan</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>509</v>
+        <v>945</v>
       </c>
       <c r="D30" t="n">
-        <v>332</v>
+        <v>920</v>
       </c>
       <c r="E30" t="n">
-        <v>134</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H30" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>45861</v>
+        <v>45863</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>resident</t>
+          <t>pms</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>1126</v>
+        <v>509</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>332</v>
       </c>
       <c r="E31" t="n">
-        <v>1126</v>
+        <v>134</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>45860</v>
+        <v>45861</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>prereg</t>
+          <t>pms</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>281</v>
+        <v>509</v>
       </c>
       <c r="D32" t="n">
-        <v>225</v>
+        <v>332</v>
       </c>
       <c r="E32" t="n">
-        <v>4</v>
+        <v>134</v>
       </c>
       <c r="F32" t="n">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>45859</v>
+        <v>45860</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>prereg</t>
+          <t>masterdata-tam</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>281</v>
+        <v>945</v>
       </c>
       <c r="D33" t="n">
-        <v>225</v>
+        <v>919</v>
       </c>
       <c r="E33" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1681,27 +1681,27 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>45861</v>
+        <v>45859</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>dsl</t>
+          <t>masterdata-tam</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>197</v>
+        <v>945</v>
       </c>
       <c r="D34" t="n">
-        <v>6</v>
+        <v>920</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>191</v>
+        <v>10</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1709,24 +1709,24 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>45860</v>
+        <v>45863</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>resident</t>
+          <t>prereg</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>1126</v>
+        <v>281</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>224</v>
       </c>
       <c r="E35" t="n">
-        <v>1126</v>
+        <v>4</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -1737,24 +1737,24 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>45859</v>
+        <v>45861</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>resident</t>
+          <t>prereg</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>1126</v>
+        <v>281</v>
       </c>
       <c r="D36" t="n">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="E36" t="n">
-        <v>1028</v>
+        <v>74</v>
       </c>
       <c r="F36" t="n">
-        <v>67</v>
+        <v>206</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -1769,26 +1769,26 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>dsl</t>
+          <t>pms</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>197</v>
+        <v>509</v>
       </c>
       <c r="D37" t="n">
-        <v>27</v>
+        <v>332</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>134</v>
       </c>
       <c r="F37" t="n">
-        <v>170</v>
+        <v>31</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38">
@@ -1797,25 +1797,277 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
+          <t>pms</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>509</v>
+      </c>
+      <c r="D38" t="n">
+        <v>332</v>
+      </c>
+      <c r="E38" t="n">
+        <v>134</v>
+      </c>
+      <c r="F38" t="n">
+        <v>31</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>45863</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="C38" t="n">
+      <c r="C39" t="n">
         <v>3</v>
       </c>
-      <c r="D38" t="n">
+      <c r="D39" t="n">
         <v>2</v>
       </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" t="n">
+      <c r="E39" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" t="n">
         <v>1</v>
       </c>
-      <c r="G38" t="n">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>45861</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>1126</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>1126</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>45860</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>281</v>
+      </c>
+      <c r="D41" t="n">
+        <v>225</v>
+      </c>
+      <c r="E41" t="n">
+        <v>4</v>
+      </c>
+      <c r="F41" t="n">
+        <v>52</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>45859</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>281</v>
+      </c>
+      <c r="D42" t="n">
+        <v>225</v>
+      </c>
+      <c r="E42" t="n">
+        <v>4</v>
+      </c>
+      <c r="F42" t="n">
+        <v>52</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>45861</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>197</v>
+      </c>
+      <c r="D43" t="n">
+        <v>6</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" t="n">
+        <v>191</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>45860</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>1126</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>1126</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>45859</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>1126</v>
+      </c>
+      <c r="D45" t="n">
+        <v>31</v>
+      </c>
+      <c r="E45" t="n">
+        <v>1028</v>
+      </c>
+      <c r="F45" t="n">
+        <v>67</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>45860</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>197</v>
+      </c>
+      <c r="D46" t="n">
+        <v>27</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" t="n">
+        <v>170</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45859</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>3</v>
+      </c>
+      <c r="D47" t="n">
+        <v>2</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" t="n">
+        <v>1</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0</v>
+      </c>
+      <c r="H47" t="n">
         <v>0</v>
       </c>
     </row>

--- a/minio-report-tracker/xlxs/cellbox21.xlsx
+++ b/minio-report-tracker/xlxs/cellbox21.xlsx
@@ -406,31 +406,6 @@
     </pic>
     <clientData/>
   </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>0</col>
-      <colOff>0</colOff>
-      <row>242</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="7620000" cy="3810000"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="12" name="Image 12" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId12"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
 </wsDr>
 </file>
 
@@ -723,7 +698,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H47"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -785,7 +760,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>45863</v>
+        <v>45866</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -813,24 +788,24 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>45861</v>
+        <v>45865</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>idrepo</t>
+          <t>dsl</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>410</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>410</v>
+        <v>1</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -841,24 +816,24 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>45860</v>
+        <v>45864</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>auth</t>
+          <t>dsl</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>512</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="E4" t="n">
-        <v>492</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -869,27 +844,27 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>45859</v>
+        <v>45863</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>auth</t>
+          <t>idrepo</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>512</v>
+        <v>410</v>
       </c>
       <c r="D5" t="n">
-        <v>198</v>
+        <v>320</v>
       </c>
       <c r="E5" t="n">
-        <v>157</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>153</v>
+        <v>6</v>
       </c>
       <c r="G5" t="n">
-        <v>4</v>
+        <v>84</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -897,24 +872,24 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>45858</v>
+        <v>45861</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>dsl</t>
+          <t>idrepo</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>410</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>2</v>
+        <v>410</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -925,7 +900,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>45863</v>
+        <v>45866</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -953,7 +928,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>45861</v>
+        <v>45863</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -981,27 +956,27 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>45860</v>
+        <v>45861</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>idrepo</t>
+          <t>masterdata-ara</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>410</v>
+        <v>945</v>
       </c>
       <c r="D9" t="n">
-        <v>322</v>
+        <v>920</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G9" t="n">
-        <v>84</v>
+        <v>15</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1009,27 +984,27 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>45859</v>
+        <v>45866</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>idrepo</t>
+          <t>masterdata-eng</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>410</v>
+        <v>945</v>
       </c>
       <c r="D10" t="n">
-        <v>322</v>
+        <v>935</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G10" t="n">
-        <v>84</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1093,11 +1068,11 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>45860</v>
+        <v>45866</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>masterdata-ara</t>
+          <t>masterdata-fra</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -1121,11 +1096,11 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>45859</v>
+        <v>45863</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>masterdata-ara</t>
+          <t>masterdata-fra</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -1149,7 +1124,7 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>45863</v>
+        <v>45861</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1160,13 +1135,13 @@
         <v>945</v>
       </c>
       <c r="D15" t="n">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G15" t="n">
         <v>15</v>
@@ -1177,24 +1152,24 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>45861</v>
+        <v>45866</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>masterdata-fra</t>
+          <t>masterdata-hin</t>
         </is>
       </c>
       <c r="C16" t="n">
         <v>945</v>
       </c>
       <c r="D16" t="n">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G16" t="n">
         <v>15</v>
@@ -1205,18 +1180,18 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>45860</v>
+        <v>45863</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>masterdata-eng</t>
+          <t>masterdata-hin</t>
         </is>
       </c>
       <c r="C17" t="n">
         <v>945</v>
       </c>
       <c r="D17" t="n">
-        <v>935</v>
+        <v>920</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -1225,7 +1200,7 @@
         <v>10</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1233,18 +1208,18 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>45859</v>
+        <v>45861</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>masterdata-eng</t>
+          <t>masterdata-hin</t>
         </is>
       </c>
       <c r="C18" t="n">
         <v>945</v>
       </c>
       <c r="D18" t="n">
-        <v>935</v>
+        <v>920</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -1253,7 +1228,7 @@
         <v>10</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1261,11 +1236,11 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>45863</v>
+        <v>45866</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>masterdata-hin</t>
+          <t>masterdata-kan</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -1289,11 +1264,11 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>45861</v>
+        <v>45863</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>masterdata-hin</t>
+          <t>masterdata-kan</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -1317,11 +1292,11 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>45860</v>
+        <v>45861</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>masterdata-fra</t>
+          <t>masterdata-kan</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -1345,11 +1320,11 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>45859</v>
+        <v>45866</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>masterdata-fra</t>
+          <t>masterdata-tam</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -1377,7 +1352,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>masterdata-kan</t>
+          <t>masterdata-tam</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -1405,7 +1380,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>masterdata-kan</t>
+          <t>masterdata-tam</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -1429,111 +1404,111 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>45860</v>
+        <v>45866</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>masterdata-hin</t>
+          <t>pms</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>945</v>
+        <v>509</v>
       </c>
       <c r="D25" t="n">
-        <v>920</v>
+        <v>332</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>134</v>
       </c>
       <c r="F25" t="n">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="G25" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>45859</v>
+        <v>45863</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>masterdata-hin</t>
+          <t>pms</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>945</v>
+        <v>509</v>
       </c>
       <c r="D26" t="n">
-        <v>920</v>
+        <v>332</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>134</v>
       </c>
       <c r="F26" t="n">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="G26" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>45863</v>
+        <v>45861</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>masterdata-tam</t>
+          <t>pms</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>945</v>
+        <v>509</v>
       </c>
       <c r="D27" t="n">
-        <v>920</v>
+        <v>332</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>134</v>
       </c>
       <c r="F27" t="n">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="G27" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>45861</v>
+        <v>45866</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>masterdata-tam</t>
+          <t>resident</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>945</v>
+        <v>1126</v>
       </c>
       <c r="D28" t="n">
-        <v>920</v>
+        <v>842</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F28" t="n">
-        <v>10</v>
+        <v>272</v>
       </c>
       <c r="G28" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1541,27 +1516,27 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>45860</v>
+        <v>45863</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>masterdata-kan</t>
+          <t>prereg</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>945</v>
+        <v>281</v>
       </c>
       <c r="D29" t="n">
-        <v>920</v>
+        <v>224</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F29" t="n">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="G29" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1569,27 +1544,27 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>45859</v>
+        <v>45861</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>masterdata-kan</t>
+          <t>prereg</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>945</v>
+        <v>281</v>
       </c>
       <c r="D30" t="n">
-        <v>920</v>
+        <v>1</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="F30" t="n">
-        <v>10</v>
+        <v>206</v>
       </c>
       <c r="G30" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1597,83 +1572,83 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>45863</v>
+        <v>45866</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pms</t>
+          <t>dsl</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>509</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
-        <v>332</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>134</v>
+        <v>1</v>
       </c>
       <c r="F31" t="n">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>45861</v>
+        <v>45863</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pms</t>
+          <t>resident</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>509</v>
+        <v>1126</v>
       </c>
       <c r="D32" t="n">
-        <v>332</v>
+        <v>31</v>
       </c>
       <c r="E32" t="n">
-        <v>134</v>
+        <v>1046</v>
       </c>
       <c r="F32" t="n">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>45860</v>
+        <v>45861</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>masterdata-tam</t>
+          <t>resident</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>945</v>
+        <v>1126</v>
       </c>
       <c r="D33" t="n">
-        <v>919</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>1126</v>
       </c>
       <c r="F33" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1681,27 +1656,27 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>45859</v>
+        <v>45863</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>masterdata-tam</t>
+          <t>dsl</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>945</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
-        <v>920</v>
+        <v>2</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G34" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1709,365 +1684,29 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>45863</v>
+        <v>45861</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>prereg</t>
+          <t>dsl</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>281</v>
+        <v>197</v>
       </c>
       <c r="D35" t="n">
-        <v>224</v>
+        <v>6</v>
       </c>
       <c r="E35" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>53</v>
+        <v>191</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>45861</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="C36" t="n">
-        <v>281</v>
-      </c>
-      <c r="D36" t="n">
-        <v>1</v>
-      </c>
-      <c r="E36" t="n">
-        <v>74</v>
-      </c>
-      <c r="F36" t="n">
-        <v>206</v>
-      </c>
-      <c r="G36" t="n">
-        <v>0</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>45860</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>pms</t>
-        </is>
-      </c>
-      <c r="C37" t="n">
-        <v>509</v>
-      </c>
-      <c r="D37" t="n">
-        <v>332</v>
-      </c>
-      <c r="E37" t="n">
-        <v>134</v>
-      </c>
-      <c r="F37" t="n">
-        <v>31</v>
-      </c>
-      <c r="G37" t="n">
-        <v>0</v>
-      </c>
-      <c r="H37" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>45859</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>pms</t>
-        </is>
-      </c>
-      <c r="C38" t="n">
-        <v>509</v>
-      </c>
-      <c r="D38" t="n">
-        <v>332</v>
-      </c>
-      <c r="E38" t="n">
-        <v>134</v>
-      </c>
-      <c r="F38" t="n">
-        <v>31</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>45863</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="C39" t="n">
-        <v>3</v>
-      </c>
-      <c r="D39" t="n">
-        <v>2</v>
-      </c>
-      <c r="E39" t="n">
-        <v>0</v>
-      </c>
-      <c r="F39" t="n">
-        <v>1</v>
-      </c>
-      <c r="G39" t="n">
-        <v>0</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>45861</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>resident</t>
-        </is>
-      </c>
-      <c r="C40" t="n">
-        <v>1126</v>
-      </c>
-      <c r="D40" t="n">
-        <v>0</v>
-      </c>
-      <c r="E40" t="n">
-        <v>1126</v>
-      </c>
-      <c r="F40" t="n">
-        <v>0</v>
-      </c>
-      <c r="G40" t="n">
-        <v>0</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>45860</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="C41" t="n">
-        <v>281</v>
-      </c>
-      <c r="D41" t="n">
-        <v>225</v>
-      </c>
-      <c r="E41" t="n">
-        <v>4</v>
-      </c>
-      <c r="F41" t="n">
-        <v>52</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>45859</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="C42" t="n">
-        <v>281</v>
-      </c>
-      <c r="D42" t="n">
-        <v>225</v>
-      </c>
-      <c r="E42" t="n">
-        <v>4</v>
-      </c>
-      <c r="F42" t="n">
-        <v>52</v>
-      </c>
-      <c r="G42" t="n">
-        <v>0</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>45861</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="C43" t="n">
-        <v>197</v>
-      </c>
-      <c r="D43" t="n">
-        <v>6</v>
-      </c>
-      <c r="E43" t="n">
-        <v>0</v>
-      </c>
-      <c r="F43" t="n">
-        <v>191</v>
-      </c>
-      <c r="G43" t="n">
-        <v>0</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>45860</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>resident</t>
-        </is>
-      </c>
-      <c r="C44" t="n">
-        <v>1126</v>
-      </c>
-      <c r="D44" t="n">
-        <v>0</v>
-      </c>
-      <c r="E44" t="n">
-        <v>1126</v>
-      </c>
-      <c r="F44" t="n">
-        <v>0</v>
-      </c>
-      <c r="G44" t="n">
-        <v>0</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>45859</v>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>resident</t>
-        </is>
-      </c>
-      <c r="C45" t="n">
-        <v>1126</v>
-      </c>
-      <c r="D45" t="n">
-        <v>31</v>
-      </c>
-      <c r="E45" t="n">
-        <v>1028</v>
-      </c>
-      <c r="F45" t="n">
-        <v>67</v>
-      </c>
-      <c r="G45" t="n">
-        <v>0</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>45860</v>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="C46" t="n">
-        <v>197</v>
-      </c>
-      <c r="D46" t="n">
-        <v>27</v>
-      </c>
-      <c r="E46" t="n">
-        <v>0</v>
-      </c>
-      <c r="F46" t="n">
-        <v>170</v>
-      </c>
-      <c r="G46" t="n">
-        <v>0</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>45859</v>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="C47" t="n">
-        <v>3</v>
-      </c>
-      <c r="D47" t="n">
-        <v>2</v>
-      </c>
-      <c r="E47" t="n">
-        <v>0</v>
-      </c>
-      <c r="F47" t="n">
-        <v>1</v>
-      </c>
-      <c r="G47" t="n">
-        <v>0</v>
-      </c>
-      <c r="H47" t="n">
         <v>0</v>
       </c>
     </row>

--- a/minio-report-tracker/xlxs/cellbox21.xlsx
+++ b/minio-report-tracker/xlxs/cellbox21.xlsx
@@ -698,7 +698,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H35"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -760,7 +760,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>45866</v>
+        <v>45867</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -788,27 +788,27 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>45865</v>
+        <v>45866</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>dsl</t>
+          <t>idrepo</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>410</v>
       </c>
       <c r="D3" t="n">
-        <v>2</v>
+        <v>320</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -816,7 +816,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>45864</v>
+        <v>45865</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -844,27 +844,27 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>45863</v>
+        <v>45864</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>idrepo</t>
+          <t>dsl</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>410</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>320</v>
+        <v>2</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G5" t="n">
-        <v>84</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -872,7 +872,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>45861</v>
+        <v>45863</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -883,16 +883,16 @@
         <v>410</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>320</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>410</v>
+        <v>6</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -900,7 +900,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>45866</v>
+        <v>45867</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -928,7 +928,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>45863</v>
+        <v>45866</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -956,7 +956,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>45861</v>
+        <v>45863</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -984,7 +984,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>45866</v>
+        <v>45867</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -1012,7 +1012,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>45863</v>
+        <v>45866</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -1040,7 +1040,7 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>45861</v>
+        <v>45863</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -1068,7 +1068,7 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>45866</v>
+        <v>45867</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1096,7 +1096,7 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>45863</v>
+        <v>45866</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1124,7 +1124,7 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>45861</v>
+        <v>45863</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1135,13 +1135,13 @@
         <v>945</v>
       </c>
       <c r="D15" t="n">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G15" t="n">
         <v>15</v>
@@ -1152,7 +1152,7 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>45866</v>
+        <v>45867</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1180,7 +1180,7 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>45863</v>
+        <v>45866</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1208,7 +1208,7 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>45861</v>
+        <v>45863</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1236,7 +1236,7 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>45866</v>
+        <v>45867</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1264,7 +1264,7 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>45863</v>
+        <v>45866</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1292,7 +1292,7 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>45861</v>
+        <v>45863</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1320,7 +1320,7 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>45866</v>
+        <v>45867</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -1348,7 +1348,7 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>45863</v>
+        <v>45866</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -1376,7 +1376,7 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>45861</v>
+        <v>45863</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -1404,7 +1404,7 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>45866</v>
+        <v>45867</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -1432,7 +1432,7 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>45863</v>
+        <v>45866</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -1460,7 +1460,7 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>45861</v>
+        <v>45863</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -1488,24 +1488,24 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>45866</v>
+        <v>45867</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>resident</t>
+          <t>prereg</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>1126</v>
+        <v>281</v>
       </c>
       <c r="D28" t="n">
-        <v>842</v>
+        <v>206</v>
       </c>
       <c r="E28" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F28" t="n">
-        <v>272</v>
+        <v>71</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -1516,7 +1516,7 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>45863</v>
+        <v>45866</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -1527,13 +1527,13 @@
         <v>281</v>
       </c>
       <c r="D29" t="n">
-        <v>224</v>
+        <v>54</v>
       </c>
       <c r="E29" t="n">
-        <v>4</v>
+        <v>129</v>
       </c>
       <c r="F29" t="n">
-        <v>53</v>
+        <v>98</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -1544,7 +1544,7 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>45861</v>
+        <v>45863</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -1555,13 +1555,13 @@
         <v>281</v>
       </c>
       <c r="D30" t="n">
-        <v>1</v>
+        <v>224</v>
       </c>
       <c r="E30" t="n">
-        <v>74</v>
+        <v>4</v>
       </c>
       <c r="F30" t="n">
-        <v>206</v>
+        <v>53</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -1572,24 +1572,24 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>45866</v>
+        <v>45867</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>dsl</t>
+          <t>resident</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>1126</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>895</v>
       </c>
       <c r="E31" t="n">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="F31" t="n">
-        <v>2</v>
+        <v>183</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -1600,7 +1600,7 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>45863</v>
+        <v>45866</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -1611,13 +1611,13 @@
         <v>1126</v>
       </c>
       <c r="D32" t="n">
-        <v>31</v>
+        <v>842</v>
       </c>
       <c r="E32" t="n">
-        <v>1046</v>
+        <v>12</v>
       </c>
       <c r="F32" t="n">
-        <v>49</v>
+        <v>272</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -1628,7 +1628,7 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>45861</v>
+        <v>45863</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -1639,13 +1639,13 @@
         <v>1126</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="E33" t="n">
-        <v>1126</v>
+        <v>1046</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -1656,7 +1656,7 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>45863</v>
+        <v>45867</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -1667,13 +1667,13 @@
         <v>3</v>
       </c>
       <c r="D34" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -1684,7 +1684,7 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>45861</v>
+        <v>45866</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -1692,21 +1692,49 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>197</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F35" t="n">
-        <v>191</v>
+        <v>2</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>45863</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>3</v>
+      </c>
+      <c r="D36" t="n">
+        <v>2</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="n">
+        <v>1</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="n">
         <v>0</v>
       </c>
     </row>
